--- a/Laporan/2024/2024Laporan Produk Jadi Kabel - 线材成品.xlsx
+++ b/Laporan/2024/2024Laporan Produk Jadi Kabel - 线材成品.xlsx
@@ -18,16 +18,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01'!$A$7:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'02'!$A$7:$G$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'03'!$A$7:$G$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Rekapan!$A$1:$J$118</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Rekapan!$A$1:$J$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'03'!$A$7:$G$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Rekapan!$A$1:$J$121</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Rekapan!$A$1:$J$62</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="63">
   <si>
     <t>LAPORAN PRODUK JADI KAWAT - 线材成品</t>
   </si>
@@ -272,7 +272,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +312,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -624,6 +630,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1338,329 +1368,329 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="65"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="65"/>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="65"/>
-      <c r="AG5" s="65"/>
-      <c r="AH5" s="65"/>
-      <c r="AI5" s="65"/>
-      <c r="AJ5" s="65"/>
-      <c r="AK5" s="65"/>
-      <c r="AL5" s="65"/>
-      <c r="AM5" s="65"/>
-      <c r="AN5" s="65"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73"/>
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="73"/>
+      <c r="AL5" s="73"/>
+      <c r="AM5" s="73"/>
+      <c r="AN5" s="73"/>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-      <c r="AG6" s="65"/>
-      <c r="AH6" s="65"/>
-      <c r="AI6" s="65"/>
-      <c r="AJ6" s="65"/>
-      <c r="AK6" s="65"/>
-      <c r="AL6" s="65"/>
-      <c r="AM6" s="65"/>
-      <c r="AN6" s="65"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="73"/>
+      <c r="AH6" s="73"/>
+      <c r="AI6" s="73"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="73"/>
+      <c r="AL6" s="73"/>
+      <c r="AM6" s="73"/>
+      <c r="AN6" s="73"/>
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="67"/>
-      <c r="AG7" s="67"/>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="67"/>
-      <c r="AK7" s="67"/>
-      <c r="AL7" s="68"/>
-      <c r="AM7" s="63" t="s">
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="76"/>
+      <c r="AM7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AN7" s="63" t="s">
+      <c r="AN7" s="71" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="15">
         <v>45291</v>
       </c>
@@ -1754,8 +1784,8 @@
       <c r="AL8" s="32">
         <v>45321</v>
       </c>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="64"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
     </row>
     <row r="9" spans="1:40">
       <c r="A9" s="16" t="s">
@@ -3788,8 +3818,8 @@
     <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3831,329 +3861,329 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="65"/>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="65"/>
-      <c r="AG5" s="71"/>
-      <c r="AH5" s="65"/>
-      <c r="AI5" s="65"/>
-      <c r="AJ5" s="65"/>
-      <c r="AK5" s="65"/>
-      <c r="AL5" s="65"/>
-      <c r="AM5" s="65"/>
-      <c r="AN5" s="65"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73"/>
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="73"/>
+      <c r="AL5" s="73"/>
+      <c r="AM5" s="73"/>
+      <c r="AN5" s="73"/>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="65"/>
-      <c r="AI6" s="65"/>
-      <c r="AJ6" s="65"/>
-      <c r="AK6" s="65"/>
-      <c r="AL6" s="65"/>
-      <c r="AM6" s="65"/>
-      <c r="AN6" s="65"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="79"/>
+      <c r="AH6" s="73"/>
+      <c r="AI6" s="73"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="73"/>
+      <c r="AL6" s="73"/>
+      <c r="AM6" s="73"/>
+      <c r="AN6" s="73"/>
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="67"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="67"/>
-      <c r="AK7" s="67"/>
-      <c r="AL7" s="68"/>
-      <c r="AM7" s="63" t="s">
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="80"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="76"/>
+      <c r="AM7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AN7" s="63" t="s">
+      <c r="AN7" s="71" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="15">
         <v>45322</v>
       </c>
@@ -4247,8 +4277,8 @@
       <c r="AL8" s="32">
         <v>45352</v>
       </c>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="64"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
     </row>
     <row r="9" spans="1:40">
       <c r="A9" s="16" t="s">
@@ -6728,20 +6758,20 @@
     <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO46"/>
+  <dimension ref="A1:AP49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="AB9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U23" sqref="U23"/>
+      <selection pane="bottomRight" activeCell="AI32" sqref="AI32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6772,342 +6802,350 @@
     <col min="37" max="37" width="9" style="45"/>
     <col min="38" max="38" width="9" style="2"/>
     <col min="39" max="39" width="9" style="45"/>
-    <col min="40" max="40" width="13" style="2" customWidth="1"/>
-    <col min="41" max="41" width="13.7109375" style="2" customWidth="1"/>
-    <col min="42" max="16384" width="9" style="2"/>
+    <col min="40" max="40" width="9" style="68"/>
+    <col min="41" max="41" width="13" style="2" customWidth="1"/>
+    <col min="42" max="42" width="13.7109375" style="2" customWidth="1"/>
+    <col min="43" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15" customHeight="1">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:42" ht="15" customHeight="1">
+      <c r="A1" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-    </row>
-    <row r="2" spans="1:41" ht="15" customHeight="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-    </row>
-    <row r="3" spans="1:41" ht="15" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-    </row>
-    <row r="4" spans="1:41" ht="15" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-    </row>
-    <row r="5" spans="1:41" ht="15" customHeight="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="65"/>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="65"/>
-      <c r="AG5" s="71"/>
-      <c r="AH5" s="65"/>
-      <c r="AI5" s="65"/>
-      <c r="AJ5" s="65"/>
-      <c r="AK5" s="65"/>
-      <c r="AL5" s="65"/>
-      <c r="AM5" s="65"/>
-      <c r="AN5" s="65"/>
-      <c r="AO5" s="65"/>
-    </row>
-    <row r="6" spans="1:41" ht="15" customHeight="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="65"/>
-      <c r="AI6" s="65"/>
-      <c r="AJ6" s="65"/>
-      <c r="AK6" s="65"/>
-      <c r="AL6" s="65"/>
-      <c r="AM6" s="65"/>
-      <c r="AN6" s="65"/>
-      <c r="AO6" s="65"/>
-    </row>
-    <row r="7" spans="1:41" ht="15" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+    </row>
+    <row r="2" spans="1:42" ht="15" customHeight="1">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+    </row>
+    <row r="3" spans="1:42" ht="15" customHeight="1">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+    </row>
+    <row r="4" spans="1:42" ht="15" customHeight="1">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="73"/>
+      <c r="AP4" s="73"/>
+    </row>
+    <row r="5" spans="1:42" ht="15" customHeight="1">
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73"/>
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="73"/>
+      <c r="AL5" s="73"/>
+      <c r="AM5" s="73"/>
+      <c r="AN5" s="73"/>
+      <c r="AO5" s="73"/>
+      <c r="AP5" s="73"/>
+    </row>
+    <row r="6" spans="1:42" ht="15" customHeight="1">
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="79"/>
+      <c r="AH6" s="73"/>
+      <c r="AI6" s="73"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="73"/>
+      <c r="AL6" s="73"/>
+      <c r="AM6" s="73"/>
+      <c r="AN6" s="73"/>
+      <c r="AO6" s="73"/>
+      <c r="AP6" s="73"/>
+    </row>
+    <row r="7" spans="1:42" ht="15" customHeight="1">
+      <c r="A7" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="74"/>
-      <c r="AI7" s="74"/>
-      <c r="AJ7" s="74"/>
-      <c r="AK7" s="74"/>
-      <c r="AL7" s="74"/>
-      <c r="AM7" s="75"/>
-      <c r="AN7" s="63" t="s">
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="82"/>
+      <c r="AK7" s="82"/>
+      <c r="AL7" s="82"/>
+      <c r="AM7" s="83"/>
+      <c r="AN7" s="63"/>
+      <c r="AO7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AO7" s="63" t="s">
+      <c r="AP7" s="71" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
+    <row r="8" spans="1:42">
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="15">
         <v>45351</v>
       </c>
@@ -7205,9 +7243,10 @@
         <v>45382</v>
       </c>
       <c r="AN8" s="64"/>
-      <c r="AO8" s="64"/>
-    </row>
-    <row r="9" spans="1:41">
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+    </row>
+    <row r="9" spans="1:42">
       <c r="A9" s="20" t="s">
         <v>33</v>
       </c>
@@ -7260,16 +7299,19 @@
       <c r="AK9" s="43"/>
       <c r="AL9" s="20"/>
       <c r="AM9" s="43"/>
-      <c r="AN9" s="19">
-        <f t="shared" ref="AN9:AN31" si="0">SUM(H9:AM9)</f>
-        <v>0</v>
-      </c>
-      <c r="AO9" s="37">
-        <f t="shared" ref="AO9:AO31" si="1">AN9-G9</f>
-        <v>-5000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41">
+      <c r="AN9" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO9" s="19">
+        <f t="shared" ref="AO9:AO31" si="0">SUM(H9:AM9)</f>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="37">
+        <f t="shared" ref="AP9:AP45" si="1">AO9-G9+AN9</f>
+        <v>-4900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
       <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
@@ -7326,16 +7368,17 @@
       <c r="AK10" s="44"/>
       <c r="AL10" s="29"/>
       <c r="AM10" s="44"/>
-      <c r="AN10" s="19">
+      <c r="AN10" s="66"/>
+      <c r="AO10" s="19">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="AO10" s="36">
+      <c r="AP10" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:42">
       <c r="A11" s="16" t="s">
         <v>11</v>
       </c>
@@ -7392,16 +7435,17 @@
       <c r="AK11" s="43"/>
       <c r="AL11" s="20"/>
       <c r="AM11" s="43"/>
-      <c r="AN11" s="19">
+      <c r="AN11" s="65"/>
+      <c r="AO11" s="19">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="AO11" s="36">
+      <c r="AP11" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:42">
       <c r="A12" s="17" t="s">
         <v>22</v>
       </c>
@@ -7462,16 +7506,17 @@
       <c r="AK12" s="43"/>
       <c r="AL12" s="20"/>
       <c r="AM12" s="43"/>
-      <c r="AN12" s="19">
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="19">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="AO12" s="36">
+      <c r="AP12" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:42">
       <c r="A13" s="20" t="s">
         <v>30</v>
       </c>
@@ -7512,9 +7557,13 @@
       <c r="U13" s="20"/>
       <c r="V13" s="21"/>
       <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
+      <c r="X13" s="20">
+        <v>13607</v>
+      </c>
       <c r="Y13" s="43"/>
-      <c r="Z13" s="21"/>
+      <c r="Z13" s="21">
+        <v>5450</v>
+      </c>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
       <c r="AC13" s="20"/>
@@ -7528,16 +7577,19 @@
       <c r="AK13" s="43"/>
       <c r="AL13" s="20"/>
       <c r="AM13" s="43"/>
-      <c r="AN13" s="19">
-        <f t="shared" si="0"/>
-        <v>50565</v>
-      </c>
-      <c r="AO13" s="37">
+      <c r="AN13" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO13" s="19">
+        <f t="shared" si="0"/>
+        <v>69622</v>
+      </c>
+      <c r="AP13" s="37">
         <f t="shared" si="1"/>
-        <v>-24435</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41">
+        <v>-5278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
       <c r="A14" s="16" t="s">
         <v>17</v>
       </c>
@@ -7594,33 +7646,34 @@
       <c r="AK14" s="43"/>
       <c r="AL14" s="20"/>
       <c r="AM14" s="43"/>
-      <c r="AN14" s="19">
+      <c r="AN14" s="65"/>
+      <c r="AO14" s="19">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="AO14" s="36">
+      <c r="AP14" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:42">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="17">
         <v>3.03</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="17">
         <v>20240124003</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="46">
+      <c r="F15" s="17"/>
+      <c r="G15" s="55">
         <v>5000</v>
       </c>
       <c r="H15" s="19">
@@ -7644,7 +7697,9 @@
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="43"/>
-      <c r="Z15" s="21"/>
+      <c r="Z15" s="21">
+        <v>1750</v>
+      </c>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
       <c r="AC15" s="20"/>
@@ -7658,16 +7713,17 @@
       <c r="AK15" s="43"/>
       <c r="AL15" s="20"/>
       <c r="AM15" s="43"/>
-      <c r="AN15" s="19">
-        <f t="shared" si="0"/>
-        <v>3250</v>
-      </c>
-      <c r="AO15" s="37">
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="19">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="AP15" s="36">
         <f t="shared" si="1"/>
-        <v>-1750</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
       <c r="A16" s="16" t="s">
         <v>35</v>
       </c>
@@ -7724,16 +7780,17 @@
       <c r="AK16" s="43"/>
       <c r="AL16" s="20"/>
       <c r="AM16" s="43"/>
-      <c r="AN16" s="19">
+      <c r="AN16" s="65"/>
+      <c r="AO16" s="19">
         <f t="shared" si="0"/>
         <v>5011</v>
       </c>
-      <c r="AO16" s="36">
+      <c r="AP16" s="36">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:42">
       <c r="A17" s="25" t="s">
         <v>17</v>
       </c>
@@ -7790,33 +7847,36 @@
       <c r="AK17" s="43"/>
       <c r="AL17" s="20"/>
       <c r="AM17" s="43"/>
-      <c r="AN17" s="19">
+      <c r="AN17" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO17" s="19">
         <f t="shared" si="0"/>
         <v>3204</v>
       </c>
-      <c r="AO17" s="37">
+      <c r="AP17" s="37">
         <f t="shared" si="1"/>
-        <v>-1796</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41">
-      <c r="A18" s="20" t="s">
+        <v>-1696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42">
+      <c r="A18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="70">
         <v>1.5549999999999999</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="17">
         <v>20240130001</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="46">
+      <c r="F18" s="17"/>
+      <c r="G18" s="55">
         <v>100000</v>
       </c>
       <c r="H18" s="19">
@@ -7848,8 +7908,12 @@
       <c r="Y18" s="43"/>
       <c r="Z18" s="21"/>
       <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
+      <c r="AB18" s="20">
+        <v>8700</v>
+      </c>
+      <c r="AC18" s="20">
+        <v>16260</v>
+      </c>
       <c r="AD18" s="20"/>
       <c r="AE18" s="20"/>
       <c r="AF18" s="43"/>
@@ -7860,33 +7924,36 @@
       <c r="AK18" s="43"/>
       <c r="AL18" s="20"/>
       <c r="AM18" s="43"/>
-      <c r="AN18" s="19">
-        <f t="shared" si="0"/>
-        <v>74940</v>
-      </c>
-      <c r="AO18" s="37">
+      <c r="AN18" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO18" s="19">
+        <f t="shared" si="0"/>
+        <v>99900</v>
+      </c>
+      <c r="AP18" s="36">
         <f t="shared" si="1"/>
-        <v>-25060</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41">
-      <c r="A19" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42">
+      <c r="A19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="17">
         <v>1.59</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="17">
         <v>20240202002</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="46">
+      <c r="F19" s="17"/>
+      <c r="G19" s="55">
         <v>100000</v>
       </c>
       <c r="H19" s="19">
@@ -7918,7 +7985,9 @@
       <c r="U19" s="20">
         <v>8614</v>
       </c>
-      <c r="V19" s="21"/>
+      <c r="V19" s="21">
+        <v>20783</v>
+      </c>
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="43"/>
@@ -7936,16 +8005,17 @@
       <c r="AK19" s="43"/>
       <c r="AL19" s="20"/>
       <c r="AM19" s="43"/>
-      <c r="AN19" s="19">
-        <f t="shared" si="0"/>
-        <v>79217</v>
-      </c>
-      <c r="AO19" s="37">
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="19">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="AP19" s="36">
         <f t="shared" si="1"/>
-        <v>-20783</v>
-      </c>
-    </row>
-    <row r="20" spans="1:41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42">
       <c r="A20" s="20" t="s">
         <v>30</v>
       </c>
@@ -8000,33 +8070,36 @@
       <c r="AK20" s="43"/>
       <c r="AL20" s="20"/>
       <c r="AM20" s="43"/>
-      <c r="AN20" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO20" s="37">
+      <c r="AN20" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO20" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP20" s="37">
         <f t="shared" si="1"/>
-        <v>-30000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:41">
-      <c r="A21" s="20" t="s">
+        <v>-29900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42">
+      <c r="A21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="17">
         <v>1.59</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="17">
         <v>20240207003</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="46">
+      <c r="F21" s="17"/>
+      <c r="G21" s="55">
         <v>12400</v>
       </c>
       <c r="H21" s="19">
@@ -8046,8 +8119,12 @@
       <c r="S21" s="43"/>
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="20"/>
+      <c r="V21" s="21">
+        <v>7536</v>
+      </c>
+      <c r="W21" s="20">
+        <v>4864</v>
+      </c>
       <c r="X21" s="20"/>
       <c r="Y21" s="43"/>
       <c r="Z21" s="21"/>
@@ -8064,33 +8141,34 @@
       <c r="AK21" s="43"/>
       <c r="AL21" s="20"/>
       <c r="AM21" s="43"/>
-      <c r="AN21" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO21" s="37">
+      <c r="AN21" s="65"/>
+      <c r="AO21" s="19">
+        <f t="shared" si="0"/>
+        <v>12400</v>
+      </c>
+      <c r="AP21" s="36">
         <f t="shared" si="1"/>
-        <v>-12400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:41">
-      <c r="A22" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42">
+      <c r="A22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="17">
         <v>1.59</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="17">
         <v>20240207004</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="46">
+      <c r="F22" s="17"/>
+      <c r="G22" s="55">
         <v>40600</v>
       </c>
       <c r="H22" s="19">
@@ -8111,11 +8189,17 @@
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
       <c r="V22" s="21"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
+      <c r="W22" s="20">
+        <v>21716</v>
+      </c>
+      <c r="X22" s="20">
+        <v>17034</v>
+      </c>
       <c r="Y22" s="43"/>
       <c r="Z22" s="21"/>
-      <c r="AA22" s="20"/>
+      <c r="AA22" s="20">
+        <v>1750</v>
+      </c>
       <c r="AB22" s="20"/>
       <c r="AC22" s="20"/>
       <c r="AD22" s="20"/>
@@ -8128,33 +8212,36 @@
       <c r="AK22" s="43"/>
       <c r="AL22" s="20"/>
       <c r="AM22" s="43"/>
-      <c r="AN22" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO22" s="37">
+      <c r="AN22" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO22" s="19">
+        <f t="shared" si="0"/>
+        <v>40500</v>
+      </c>
+      <c r="AP22" s="36">
         <f t="shared" si="1"/>
-        <v>-40600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:41">
-      <c r="A23" s="26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42">
+      <c r="A23" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="17">
         <v>1.2749999999999999</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="17">
         <v>20240207005</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="46">
+      <c r="F23" s="17"/>
+      <c r="G23" s="55">
         <v>130000</v>
       </c>
       <c r="H23" s="19">
@@ -8182,8 +8269,12 @@
       <c r="U23" s="20">
         <v>23961</v>
       </c>
-      <c r="V23" s="21"/>
-      <c r="W23" s="20"/>
+      <c r="V23" s="21">
+        <v>26643</v>
+      </c>
+      <c r="W23" s="20">
+        <v>9996</v>
+      </c>
       <c r="X23" s="20"/>
       <c r="Y23" s="43"/>
       <c r="Z23" s="21"/>
@@ -8200,16 +8291,17 @@
       <c r="AK23" s="43"/>
       <c r="AL23" s="20"/>
       <c r="AM23" s="43"/>
-      <c r="AN23" s="19">
-        <f t="shared" si="0"/>
-        <v>93361</v>
-      </c>
-      <c r="AO23" s="37">
+      <c r="AN23" s="65"/>
+      <c r="AO23" s="19">
+        <f t="shared" si="0"/>
+        <v>130000</v>
+      </c>
+      <c r="AP23" s="36">
         <f t="shared" si="1"/>
-        <v>-36639</v>
-      </c>
-    </row>
-    <row r="24" spans="1:41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42">
       <c r="A24" s="25" t="s">
         <v>17</v>
       </c>
@@ -8252,7 +8344,9 @@
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="43"/>
-      <c r="Z24" s="21"/>
+      <c r="Z24" s="21">
+        <v>15655</v>
+      </c>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
       <c r="AC24" s="20"/>
@@ -8266,16 +8360,19 @@
       <c r="AK24" s="43"/>
       <c r="AL24" s="20"/>
       <c r="AM24" s="43"/>
-      <c r="AN24" s="19">
-        <f t="shared" si="0"/>
-        <v>338</v>
-      </c>
-      <c r="AO24" s="37">
+      <c r="AN24" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO24" s="19">
+        <f t="shared" si="0"/>
+        <v>15993</v>
+      </c>
+      <c r="AP24" s="37">
         <f t="shared" si="1"/>
-        <v>-19862</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41">
+        <v>-4107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42">
       <c r="A25" s="25" t="s">
         <v>17</v>
       </c>
@@ -8321,7 +8418,9 @@
       <c r="AB25" s="20"/>
       <c r="AC25" s="20"/>
       <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
+      <c r="AE25" s="20">
+        <v>7705</v>
+      </c>
       <c r="AF25" s="43"/>
       <c r="AG25" s="21"/>
       <c r="AH25" s="20"/>
@@ -8330,16 +8429,19 @@
       <c r="AK25" s="43"/>
       <c r="AL25" s="20"/>
       <c r="AM25" s="43"/>
-      <c r="AN25" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO25" s="37">
+      <c r="AN25" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO25" s="19">
+        <f t="shared" si="0"/>
+        <v>7705</v>
+      </c>
+      <c r="AP25" s="37">
         <f t="shared" si="1"/>
-        <v>-11700</v>
-      </c>
-    </row>
-    <row r="26" spans="1:41">
+        <v>-3895</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42">
       <c r="A26" s="25" t="s">
         <v>17</v>
       </c>
@@ -8394,16 +8496,19 @@
       <c r="AK26" s="43"/>
       <c r="AL26" s="20"/>
       <c r="AM26" s="43"/>
-      <c r="AN26" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO26" s="37">
+      <c r="AN26" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO26" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP26" s="37">
         <f t="shared" si="1"/>
-        <v>-1600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:41">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42">
       <c r="A27" s="16" t="s">
         <v>35</v>
       </c>
@@ -8462,16 +8567,17 @@
       <c r="AK27" s="43"/>
       <c r="AL27" s="20"/>
       <c r="AM27" s="43"/>
-      <c r="AN27" s="19">
+      <c r="AN27" s="65"/>
+      <c r="AO27" s="19">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="AO27" s="36">
+      <c r="AP27" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:42">
       <c r="A28" s="25" t="s">
         <v>14</v>
       </c>
@@ -8528,16 +8634,19 @@
       <c r="AK28" s="44"/>
       <c r="AL28" s="29"/>
       <c r="AM28" s="44"/>
-      <c r="AN28" s="19">
+      <c r="AN28" s="66">
+        <v>100</v>
+      </c>
+      <c r="AO28" s="19">
         <f t="shared" si="0"/>
         <v>3668</v>
       </c>
-      <c r="AO28" s="37">
+      <c r="AP28" s="37">
         <f t="shared" si="1"/>
-        <v>-11332</v>
-      </c>
-    </row>
-    <row r="29" spans="1:41">
+        <v>-11232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42">
       <c r="A29" s="17" t="s">
         <v>49</v>
       </c>
@@ -8594,16 +8703,17 @@
       <c r="AK29" s="44"/>
       <c r="AL29" s="29"/>
       <c r="AM29" s="44"/>
-      <c r="AN29" s="19">
+      <c r="AN29" s="66"/>
+      <c r="AO29" s="19">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="AO29" s="36">
+      <c r="AP29" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:42">
       <c r="A30" s="20" t="s">
         <v>33</v>
       </c>
@@ -8656,16 +8766,19 @@
       <c r="AK30" s="43"/>
       <c r="AL30" s="20"/>
       <c r="AM30" s="43"/>
-      <c r="AN30" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO30" s="37">
+      <c r="AN30" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO30" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP30" s="37">
         <f t="shared" si="1"/>
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:41">
+        <v>-9900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42">
       <c r="A31" s="25" t="s">
         <v>17</v>
       </c>
@@ -8722,16 +8835,19 @@
       <c r="AK31" s="43"/>
       <c r="AL31" s="20"/>
       <c r="AM31" s="43"/>
-      <c r="AN31" s="19">
+      <c r="AN31" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO31" s="19">
         <f t="shared" si="0"/>
         <v>9348</v>
       </c>
-      <c r="AO31" s="37">
+      <c r="AP31" s="37">
         <f t="shared" si="1"/>
-        <v>-652</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41">
+        <v>-552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42">
       <c r="A32" s="26" t="s">
         <v>11</v>
       </c>
@@ -8769,12 +8885,20 @@
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
       <c r="V32" s="21"/>
-      <c r="W32" s="20"/>
+      <c r="W32" s="20">
+        <v>17004</v>
+      </c>
       <c r="X32" s="20"/>
       <c r="Y32" s="43"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
+      <c r="Z32" s="21">
+        <v>18950</v>
+      </c>
+      <c r="AA32" s="20">
+        <v>27331</v>
+      </c>
+      <c r="AB32" s="20">
+        <v>13804</v>
+      </c>
       <c r="AC32" s="20"/>
       <c r="AD32" s="20"/>
       <c r="AE32" s="20"/>
@@ -8786,16 +8910,19 @@
       <c r="AK32" s="43"/>
       <c r="AL32" s="20"/>
       <c r="AM32" s="43"/>
-      <c r="AN32" s="19">
-        <f t="shared" ref="AN32:AN39" si="2">SUM(H32:AM32)</f>
-        <v>0</v>
-      </c>
-      <c r="AO32" s="37">
-        <f t="shared" ref="AO32:AO43" si="3">AN32-G32</f>
-        <v>-130000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:41">
+      <c r="AN32" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO32" s="19">
+        <f t="shared" ref="AO32:AO39" si="2">SUM(H32:AM32)</f>
+        <v>77089</v>
+      </c>
+      <c r="AP32" s="37">
+        <f t="shared" si="1"/>
+        <v>-52811</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42">
       <c r="A33" s="26" t="s">
         <v>11</v>
       </c>
@@ -8850,16 +8977,19 @@
       <c r="AK33" s="43"/>
       <c r="AL33" s="20"/>
       <c r="AM33" s="43"/>
-      <c r="AN33" s="19">
+      <c r="AN33" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO33" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO33" s="37">
-        <f t="shared" si="3"/>
-        <v>-90000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:41">
+      <c r="AP33" s="37">
+        <f t="shared" si="1"/>
+        <v>-89900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42">
       <c r="A34" s="20" t="s">
         <v>22</v>
       </c>
@@ -8901,10 +9031,18 @@
       <c r="X34" s="20"/>
       <c r="Y34" s="43"/>
       <c r="Z34" s="21"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
+      <c r="AA34" s="20">
+        <v>25030</v>
+      </c>
+      <c r="AB34" s="20">
+        <v>28190</v>
+      </c>
+      <c r="AC34" s="20">
+        <v>24763</v>
+      </c>
+      <c r="AD34" s="20">
+        <v>26120</v>
+      </c>
       <c r="AE34" s="20"/>
       <c r="AF34" s="43"/>
       <c r="AG34" s="21"/>
@@ -8914,16 +9052,19 @@
       <c r="AK34" s="43"/>
       <c r="AL34" s="20"/>
       <c r="AM34" s="43"/>
-      <c r="AN34" s="19">
+      <c r="AN34" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO34" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AO34" s="37">
-        <f t="shared" si="3"/>
-        <v>-114000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:41">
+        <v>104103</v>
+      </c>
+      <c r="AP34" s="37">
+        <f t="shared" si="1"/>
+        <v>-9797</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42">
       <c r="A35" s="20" t="s">
         <v>49</v>
       </c>
@@ -8980,16 +9121,19 @@
       <c r="AK35" s="44"/>
       <c r="AL35" s="29"/>
       <c r="AM35" s="44"/>
-      <c r="AN35" s="19">
+      <c r="AN35" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO35" s="19">
         <f t="shared" si="2"/>
         <v>2250</v>
       </c>
-      <c r="AO35" s="37">
-        <f t="shared" si="3"/>
-        <v>-63750</v>
-      </c>
-    </row>
-    <row r="36" spans="1:41">
+      <c r="AP35" s="37">
+        <f t="shared" si="1"/>
+        <v>-63650</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42">
       <c r="A36" s="25" t="s">
         <v>14</v>
       </c>
@@ -9044,16 +9188,19 @@
       <c r="AK36" s="44"/>
       <c r="AL36" s="29"/>
       <c r="AM36" s="44"/>
-      <c r="AN36" s="19">
+      <c r="AN36" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO36" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO36" s="37">
-        <f t="shared" si="3"/>
-        <v>-30000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41">
+      <c r="AP36" s="37">
+        <f t="shared" si="1"/>
+        <v>-29900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42">
       <c r="A37" s="25" t="s">
         <v>14</v>
       </c>
@@ -9108,16 +9255,19 @@
       <c r="AK37" s="44"/>
       <c r="AL37" s="29"/>
       <c r="AM37" s="44"/>
-      <c r="AN37" s="19">
+      <c r="AN37" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO37" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO37" s="37">
-        <f t="shared" si="3"/>
-        <v>-25000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41">
+      <c r="AP37" s="37">
+        <f t="shared" si="1"/>
+        <v>-24900</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42">
       <c r="A38" s="21" t="s">
         <v>27</v>
       </c>
@@ -9172,16 +9322,19 @@
       <c r="AK38" s="44"/>
       <c r="AL38" s="29"/>
       <c r="AM38" s="44"/>
-      <c r="AN38" s="19">
+      <c r="AN38" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO38" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO38" s="37">
-        <f t="shared" si="3"/>
-        <v>-12000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41">
+      <c r="AP38" s="37">
+        <f t="shared" si="1"/>
+        <v>-11900</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42">
       <c r="A39" s="20" t="s">
         <v>41</v>
       </c>
@@ -9225,9 +9378,15 @@
       <c r="Z39" s="21"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
-      <c r="AC39" s="20"/>
-      <c r="AD39" s="20"/>
-      <c r="AE39" s="20"/>
+      <c r="AC39" s="20">
+        <v>13502</v>
+      </c>
+      <c r="AD39" s="20">
+        <v>27854</v>
+      </c>
+      <c r="AE39" s="20">
+        <v>15300</v>
+      </c>
       <c r="AF39" s="43"/>
       <c r="AG39" s="21"/>
       <c r="AH39" s="20"/>
@@ -9236,16 +9395,19 @@
       <c r="AK39" s="43"/>
       <c r="AL39" s="20"/>
       <c r="AM39" s="43"/>
-      <c r="AN39" s="19">
+      <c r="AN39" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO39" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AO39" s="37">
-        <f t="shared" si="3"/>
-        <v>-100000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:41">
+        <v>56656</v>
+      </c>
+      <c r="AP39" s="37">
+        <f t="shared" si="1"/>
+        <v>-43244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42">
       <c r="A40" s="25" t="s">
         <v>17</v>
       </c>
@@ -9300,16 +9462,19 @@
       <c r="AK40" s="43"/>
       <c r="AL40" s="20"/>
       <c r="AM40" s="43"/>
-      <c r="AN40" s="19">
-        <f t="shared" ref="AN40:AN43" si="4">SUM(H40:AM40)</f>
-        <v>0</v>
-      </c>
-      <c r="AO40" s="37">
-        <f t="shared" si="3"/>
-        <v>-24050</v>
-      </c>
-    </row>
-    <row r="41" spans="1:41">
+      <c r="AN40" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO40" s="19">
+        <f t="shared" ref="AO40:AO43" si="3">SUM(H40:AM40)</f>
+        <v>0</v>
+      </c>
+      <c r="AP40" s="37">
+        <f t="shared" si="1"/>
+        <v>-23950</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42">
       <c r="A41" s="25" t="s">
         <v>17</v>
       </c>
@@ -9364,16 +9529,19 @@
       <c r="AK41" s="43"/>
       <c r="AL41" s="20"/>
       <c r="AM41" s="43"/>
-      <c r="AN41" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AO41" s="37">
+      <c r="AN41" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO41" s="19">
         <f t="shared" si="3"/>
-        <v>-6600</v>
-      </c>
-    </row>
-    <row r="42" spans="1:41">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="37">
+        <f t="shared" si="1"/>
+        <v>-6500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42">
       <c r="A42" s="25" t="s">
         <v>17</v>
       </c>
@@ -9428,16 +9596,19 @@
       <c r="AK42" s="43"/>
       <c r="AL42" s="20"/>
       <c r="AM42" s="43"/>
-      <c r="AN42" s="19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AO42" s="37">
+      <c r="AN42" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO42" s="19">
         <f t="shared" si="3"/>
-        <v>-1100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:41" s="7" customFormat="1">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="37">
+        <f t="shared" si="1"/>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" s="7" customFormat="1">
       <c r="A43" s="26" t="s">
         <v>35</v>
       </c>
@@ -9492,77 +9663,282 @@
       <c r="AK43" s="43"/>
       <c r="AL43" s="21"/>
       <c r="AM43" s="43"/>
-      <c r="AN43" s="39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AO43" s="37">
+      <c r="AN43" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO43" s="39">
         <f t="shared" si="3"/>
-        <v>-21000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:41">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="60"/>
-      <c r="S44" s="60"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="60"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="12"/>
-      <c r="AC44" s="12"/>
-      <c r="AD44" s="12"/>
-      <c r="AE44" s="12"/>
-      <c r="AF44" s="60"/>
-      <c r="AG44" s="10"/>
-      <c r="AH44" s="12"/>
-      <c r="AI44" s="12"/>
-      <c r="AJ44" s="12"/>
-      <c r="AK44" s="60"/>
-      <c r="AL44" s="12"/>
-      <c r="AM44" s="60"/>
-      <c r="AN44" s="59"/>
-      <c r="AO44" s="61"/>
-    </row>
-    <row r="45" spans="1:41">
-      <c r="B45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="37">
+        <f t="shared" si="1"/>
+        <v>-20900</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42">
+      <c r="A44" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="28">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="E44" s="20">
+        <v>20240313003</v>
+      </c>
+      <c r="F44" s="21"/>
+      <c r="G44" s="46">
+        <v>150000</v>
+      </c>
+      <c r="H44" s="19">
+        <f>IFERROR(IF(SUMIF('02'!$E$7:$E$460,E44,'02'!$AM$7:$AM$460)&lt;0,0,SUMIF('02'!$E$7:$E$460,E44,'02'!$AM$7:$AM$460)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="43"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="20"/>
+      <c r="AE44" s="20"/>
+      <c r="AF44" s="43"/>
+      <c r="AG44" s="21"/>
+      <c r="AH44" s="20"/>
+      <c r="AI44" s="20"/>
+      <c r="AJ44" s="20"/>
+      <c r="AK44" s="43"/>
+      <c r="AL44" s="20"/>
+      <c r="AM44" s="43"/>
+      <c r="AN44" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO44" s="19">
+        <f t="shared" ref="AO44" si="4">SUM(H44:AM44)</f>
+        <v>0</v>
+      </c>
+      <c r="AP44" s="37">
+        <f t="shared" si="1"/>
+        <v>-149900</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42">
+      <c r="A45" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="20">
+        <v>1.59</v>
+      </c>
+      <c r="E45" s="21">
+        <v>20240318001</v>
+      </c>
+      <c r="F45" s="21"/>
+      <c r="G45" s="46">
+        <v>110000</v>
+      </c>
+      <c r="H45" s="19">
+        <f>IFERROR(IF(SUMIF('02'!$E$7:$E$460,E45,'02'!$AM$7:$AM$460)&lt;0,0,SUMIF('02'!$E$7:$E$460,E45,'02'!$AM$7:$AM$460)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="43"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="20"/>
+      <c r="AE45" s="20"/>
+      <c r="AF45" s="43"/>
+      <c r="AG45" s="21"/>
+      <c r="AH45" s="20"/>
+      <c r="AI45" s="20"/>
+      <c r="AJ45" s="20"/>
+      <c r="AK45" s="43"/>
+      <c r="AL45" s="20"/>
+      <c r="AM45" s="43"/>
+      <c r="AN45" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO45" s="19">
+        <f t="shared" ref="AO45" si="5">SUM(H45:AM45)</f>
+        <v>0</v>
+      </c>
+      <c r="AP45" s="37">
+        <f t="shared" si="1"/>
+        <v>-109900</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42">
+      <c r="A46" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="20">
+        <v>1.59</v>
+      </c>
+      <c r="E46" s="21">
+        <v>20240322001</v>
+      </c>
+      <c r="F46" s="21"/>
+      <c r="G46" s="46">
+        <v>100000</v>
+      </c>
+      <c r="H46" s="19">
+        <f>IFERROR(IF(SUMIF('02'!$E$7:$E$460,E46,'02'!$AM$7:$AM$460)&lt;0,0,SUMIF('02'!$E$7:$E$460,E46,'02'!$AM$7:$AM$460)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="43"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="20"/>
+      <c r="AE46" s="20"/>
+      <c r="AF46" s="43"/>
+      <c r="AG46" s="21"/>
+      <c r="AH46" s="20"/>
+      <c r="AI46" s="20"/>
+      <c r="AJ46" s="20"/>
+      <c r="AK46" s="43"/>
+      <c r="AL46" s="20"/>
+      <c r="AM46" s="43"/>
+      <c r="AN46" s="65">
+        <v>100</v>
+      </c>
+      <c r="AO46" s="19">
+        <f t="shared" ref="AO46" si="6">SUM(H46:AM46)</f>
+        <v>0</v>
+      </c>
+      <c r="AP46" s="37">
+        <f t="shared" ref="AP46" si="7">AO46-G46+AN46</f>
+        <v>-99900</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42">
+      <c r="A47" s="62"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="60"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="60"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="60"/>
+      <c r="AL47" s="12"/>
+      <c r="AM47" s="60"/>
+      <c r="AN47" s="67"/>
+      <c r="AO47" s="59"/>
+      <c r="AP47" s="61"/>
+    </row>
+    <row r="48" spans="1:42">
+      <c r="B48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C48" s="30">
         <f>SUM(I$9:AM$1048576)</f>
-        <v>361434</v>
-      </c>
-      <c r="D45" s="30"/>
-    </row>
-    <row r="46" spans="1:41">
-      <c r="E46" s="31"/>
+        <v>778731</v>
+      </c>
+      <c r="D48" s="30"/>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G45"/>
+  <autoFilter ref="A7:G48"/>
   <mergeCells count="11">
-    <mergeCell ref="AO7:AO8"/>
+    <mergeCell ref="AP7:AP8"/>
     <mergeCell ref="H7:AM7"/>
-    <mergeCell ref="A1:AO6"/>
+    <mergeCell ref="A1:AP6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -9570,7 +9946,7 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="AN7:AN8"/>
+    <mergeCell ref="AO7:AO8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9580,11 +9956,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9599,7 +9975,9 @@
     <col min="8" max="8" width="13.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="52"/>
     <col min="10" max="10" width="7" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="11" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="9" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="14.25">
@@ -9691,7 +10069,7 @@
         <v>50000</v>
       </c>
       <c r="I3" s="53">
-        <f t="shared" ref="I3:I77" si="0">H3-F3</f>
+        <f t="shared" ref="I3:I80" si="0">H3-F3</f>
         <v>0</v>
       </c>
       <c r="J3" s="9" t="s">
@@ -9777,7 +10155,7 @@
         <v>61</v>
       </c>
       <c r="H6" s="7">
-        <f>'03'!AN11</f>
+        <f>'03'!AO11</f>
         <v>100000</v>
       </c>
       <c r="I6" s="53">
@@ -9807,12 +10185,12 @@
         <v>61</v>
       </c>
       <c r="H7" s="7">
-        <f>'03'!AN23</f>
-        <v>93361</v>
-      </c>
-      <c r="I7" s="52">
-        <f t="shared" si="0"/>
-        <v>-36639</v>
+        <f>'03'!AO23</f>
+        <v>130000</v>
+      </c>
+      <c r="I7" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>61</v>
@@ -9837,12 +10215,12 @@
         <v>61</v>
       </c>
       <c r="H8" s="7">
-        <f>'03'!AN32</f>
-        <v>0</v>
+        <f>'03'!AO32</f>
+        <v>77089</v>
       </c>
       <c r="I8" s="52">
         <f t="shared" si="0"/>
-        <v>-130000</v>
+        <v>-52911</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>61</v>
@@ -9867,7 +10245,7 @@
         <v>61</v>
       </c>
       <c r="H9" s="7">
-        <f>'03'!AN33</f>
+        <f>'03'!AO33</f>
         <v>0</v>
       </c>
       <c r="I9" s="52">
@@ -9942,7 +10320,7 @@
         <v>61</v>
       </c>
       <c r="H12" s="7">
-        <f>'03'!AN12</f>
+        <f>'03'!AO12</f>
         <v>50000</v>
       </c>
       <c r="I12" s="53">
@@ -9972,12 +10350,12 @@
         <v>61</v>
       </c>
       <c r="H13" s="7">
-        <f>'03'!AN19</f>
-        <v>79217</v>
-      </c>
-      <c r="I13" s="52">
-        <f t="shared" si="0"/>
-        <v>-20783</v>
+        <f>'03'!AO19</f>
+        <v>100000</v>
+      </c>
+      <c r="I13" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>61</v>
@@ -10002,12 +10380,12 @@
         <v>61</v>
       </c>
       <c r="H14" s="7">
-        <f>'03'!AN21</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="52">
-        <f t="shared" si="0"/>
-        <v>-12400</v>
+        <f>'03'!AO21</f>
+        <v>12400</v>
+      </c>
+      <c r="I14" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>61</v>
@@ -10032,12 +10410,12 @@
         <v>61</v>
       </c>
       <c r="H15" s="7">
-        <f>'03'!AN22</f>
-        <v>0</v>
+        <f>'03'!AO22</f>
+        <v>40500</v>
       </c>
       <c r="I15" s="52">
         <f t="shared" si="0"/>
-        <v>-40600</v>
+        <v>-100</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>61</v>
@@ -10062,57 +10440,74 @@
         <v>61</v>
       </c>
       <c r="H16" s="7">
-        <f>'03'!AN34</f>
-        <v>0</v>
+        <f>'03'!AO34</f>
+        <v>104103</v>
       </c>
       <c r="I16" s="52">
         <f t="shared" si="0"/>
-        <v>-114000</v>
+        <v>-9897</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="A17" s="8">
+        <v>45369</v>
+      </c>
+      <c r="B17" s="10">
+        <v>20240318001</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="7"/>
-      <c r="J17" s="5"/>
+      <c r="F17" s="49">
+        <v>110000</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="7">
+        <f>'03'!AO45</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="52">
+        <f t="shared" ref="I17" si="1">H17-F17</f>
+        <v>-110000</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="4">
-        <v>45257</v>
-      </c>
-      <c r="B18" s="5">
-        <v>20231127001</v>
-      </c>
-      <c r="C18" s="5"/>
+      <c r="A18" s="8">
+        <v>45373</v>
+      </c>
+      <c r="B18" s="10">
+        <v>20240322001</v>
+      </c>
+      <c r="C18" s="10"/>
       <c r="D18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.90500000000000003</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E18" s="5"/>
       <c r="F18" s="49">
-        <v>4200</v>
-      </c>
-      <c r="G18" s="5" t="s">
+        <v>100000</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="7">
-        <f>'01'!AM15</f>
-        <v>4200</v>
-      </c>
-      <c r="I18" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="5" t="s">
+        <f>'03'!AO46</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="52">
+        <f t="shared" ref="I18" si="2">H18-F18</f>
+        <v>-100000</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -10128,34 +10523,36 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="11">
-        <v>45339</v>
-      </c>
-      <c r="B20" s="2">
-        <v>20240217008</v>
+      <c r="A20" s="4">
+        <v>45257</v>
+      </c>
+      <c r="B20" s="5">
+        <v>20231127001</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E20" s="5">
-        <v>1.82</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="F20" s="49">
-        <v>10000</v>
+        <v>4200</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H20" s="7">
-        <f>'03'!AN31</f>
-        <v>9348</v>
-      </c>
-      <c r="I20" s="54">
-        <f t="shared" si="0"/>
-        <v>-652</v>
-      </c>
-      <c r="J20" s="5"/>
+        <f>'01'!AM15</f>
+        <v>4200</v>
+      </c>
+      <c r="I20" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4"/>
@@ -10169,36 +10566,34 @@
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="8">
-        <v>45321</v>
-      </c>
-      <c r="B22" s="5">
-        <v>20240130025</v>
+      <c r="A22" s="11">
+        <v>45339</v>
+      </c>
+      <c r="B22" s="2">
+        <v>20240217008</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E22" s="5">
-        <v>0.45500000000000002</v>
+        <v>1.82</v>
       </c>
       <c r="F22" s="49">
-        <v>5855</v>
+        <v>10000</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H22" s="7">
-        <f>'02'!AM30</f>
-        <v>5855</v>
-      </c>
-      <c r="I22" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>61</v>
-      </c>
+        <f>'03'!AO31</f>
+        <v>9348</v>
+      </c>
+      <c r="I22" s="54">
+        <f t="shared" si="0"/>
+        <v>-652</v>
+      </c>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4"/>
@@ -10212,91 +10607,74 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="4">
+      <c r="A24" s="8">
+        <v>45321</v>
+      </c>
+      <c r="B24" s="5">
+        <v>20240130025</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="F24" s="49">
+        <v>5855</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="7">
+        <f>'02'!AM30</f>
+        <v>5855</v>
+      </c>
+      <c r="I24" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="7"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="4">
         <v>45231</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B26" s="5">
         <v>20231027005</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C26" s="5">
         <v>20231101005</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E26" s="5">
         <v>1.82</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F26" s="49">
         <v>31000</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="G26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="7">
         <f>'02'!AM9</f>
         <v>31000</v>
       </c>
-      <c r="I24" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="8">
-        <v>45294</v>
-      </c>
-      <c r="B25" s="5">
-        <v>20240103031</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="49">
-        <v>27200</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="7">
-        <f>'02'!AM12</f>
-        <v>27200</v>
-      </c>
-      <c r="I25" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="8">
-        <v>45315</v>
-      </c>
-      <c r="B26" s="5">
-        <v>20240124002</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="49">
-        <v>10000</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="7">
-        <f>'03'!AN14</f>
-        <v>10000</v>
-      </c>
       <c r="I26" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10307,10 +10685,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="8">
-        <v>45329</v>
+        <v>45294</v>
       </c>
       <c r="B27" s="5">
-        <v>20240207006</v>
+        <v>20240103031</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
@@ -10318,18 +10696,18 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="49">
-        <v>20200</v>
+        <v>27200</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="7">
-        <f>'03'!AN24</f>
-        <v>338</v>
-      </c>
-      <c r="I27" s="52">
-        <f t="shared" si="0"/>
-        <v>-19862</v>
+        <f>'02'!AM12</f>
+        <v>27200</v>
+      </c>
+      <c r="I27" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>61</v>
@@ -10337,10 +10715,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="8">
-        <v>45364</v>
+        <v>45315</v>
       </c>
       <c r="B28" s="5">
-        <v>20240312052</v>
+        <v>20240124002</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
@@ -10348,134 +10726,134 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="49">
+        <v>10000</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="7">
+        <f>'03'!AO14</f>
+        <v>10000</v>
+      </c>
+      <c r="I28" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="8">
+        <v>45329</v>
+      </c>
+      <c r="B29" s="5">
+        <v>20240207006</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="49">
+        <v>20200</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="7">
+        <f>'03'!AO24</f>
+        <v>15993</v>
+      </c>
+      <c r="I29" s="52">
+        <f t="shared" si="0"/>
+        <v>-4207</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="8">
+        <v>45364</v>
+      </c>
+      <c r="B30" s="5">
+        <v>20240312052</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="49">
         <v>24050</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="7">
-        <f>'03'!AN40</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="52">
-        <f t="shared" ref="I28" si="1">H28-F28</f>
+      <c r="G30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="7">
+        <f>'03'!AO40</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="52">
+        <f t="shared" ref="I30" si="3">H30-F30</f>
         <v>-24050</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="7"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="4">
+      <c r="J30" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="7"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="4">
         <v>45231</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B32" s="5">
         <v>20231027006</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C32" s="5">
         <v>20231101006</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E32" s="5">
         <v>3.03</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F32" s="49">
         <v>21200</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="7">
+      <c r="G32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="7">
         <f>'01'!AM12</f>
         <v>21200</v>
       </c>
-      <c r="I30" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="4">
+      <c r="I32" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="4">
         <v>45257</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B33" s="5">
         <v>20231127004</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="49">
-        <v>7200</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H31" s="7">
-        <f>'01'!AM16</f>
-        <v>7200</v>
-      </c>
-      <c r="I31" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="4">
-        <v>45254</v>
-      </c>
-      <c r="B32" s="5">
-        <v>20240124003</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="49">
-        <v>5000</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="7">
-        <f>'03'!AN15</f>
-        <v>3250</v>
-      </c>
-      <c r="I32" s="52">
-        <f t="shared" si="0"/>
-        <v>-1750</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="8">
-        <v>45329</v>
-      </c>
-      <c r="B33" s="5">
-        <v>20240207007</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
@@ -10483,29 +10861,29 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="49">
-        <v>11700</v>
+        <v>7200</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H33" s="7">
-        <f>'03'!AN25</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="52">
-        <f t="shared" si="0"/>
-        <v>-11700</v>
+        <f>'01'!AM16</f>
+        <v>7200</v>
+      </c>
+      <c r="I33" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="8">
-        <v>45364</v>
+      <c r="A34" s="4">
+        <v>45254</v>
       </c>
       <c r="B34" s="5">
-        <v>20240312053</v>
+        <v>20240124003</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
@@ -10513,136 +10891,134 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="49">
+        <v>5000</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="7">
+        <f>'03'!AO15</f>
+        <v>5000</v>
+      </c>
+      <c r="I34" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="8">
+        <v>45329</v>
+      </c>
+      <c r="B35" s="5">
+        <v>20240207007</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="49">
+        <v>11700</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="7">
+        <f>'03'!AO25</f>
+        <v>7705</v>
+      </c>
+      <c r="I35" s="52">
+        <f t="shared" si="0"/>
+        <v>-3995</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="8">
+        <v>45364</v>
+      </c>
+      <c r="B36" s="5">
+        <v>20240312053</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="49">
         <v>6600</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H34" s="7">
-        <f>'03'!AN41</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="52">
-        <f t="shared" ref="I34" si="2">H34-F34</f>
+      <c r="G36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="7">
+        <f>'03'!AO41</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="52">
+        <f t="shared" ref="I36" si="4">H36-F36</f>
         <v>-6600</v>
       </c>
-      <c r="J34" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="7"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="4">
+      <c r="J36" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="7"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="4">
         <v>45231</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B38" s="5">
         <v>20231027007</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C38" s="5">
         <v>20231101007</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E38" s="5">
         <v>4.55</v>
       </c>
-      <c r="F36" s="49">
+      <c r="F38" s="49">
         <v>16500</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="7">
+      <c r="G38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="7">
         <f>'01'!AM13</f>
         <v>16500</v>
       </c>
-      <c r="I36" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="4">
+      <c r="I38" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="4">
         <v>45257</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B39" s="5">
         <v>20231127005</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="49">
-        <v>3700</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H37" s="7">
-        <f>'01'!AM17</f>
-        <v>3700</v>
-      </c>
-      <c r="I37" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="4">
-        <v>45273</v>
-      </c>
-      <c r="B38" s="5">
-        <v>20231213003</v>
-      </c>
-      <c r="C38" s="5">
-        <v>20231218014</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="49">
-        <v>8600</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H38" s="7">
-        <f>'01'!AM19</f>
-        <v>8600</v>
-      </c>
-      <c r="I38" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="8">
-        <v>45294</v>
-      </c>
-      <c r="B39" s="5">
-        <v>20240103032</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
@@ -10650,14 +11026,14 @@
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="49">
-        <v>11000</v>
+        <v>3700</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H39" s="7">
-        <f>'02'!AM13</f>
-        <v>11000</v>
+        <f>'01'!AM17</f>
+        <v>3700</v>
       </c>
       <c r="I39" s="53">
         <f t="shared" si="0"/>
@@ -10668,30 +11044,32 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="8">
-        <v>45315</v>
+      <c r="A40" s="4">
+        <v>45273</v>
       </c>
       <c r="B40" s="5">
-        <v>20240124006</v>
-      </c>
-      <c r="C40" s="5"/>
+        <v>20231213003</v>
+      </c>
+      <c r="C40" s="5">
+        <v>20231218014</v>
+      </c>
       <c r="D40" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="49">
-        <v>5000</v>
+        <v>8600</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H40" s="7">
-        <f>'03'!AN17</f>
-        <v>3204</v>
-      </c>
-      <c r="I40" s="52">
-        <f t="shared" si="0"/>
-        <v>-1796</v>
+        <f>'01'!AM19</f>
+        <v>8600</v>
+      </c>
+      <c r="I40" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>61</v>
@@ -10699,10 +11077,10 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="8">
-        <v>45329</v>
+        <v>45294</v>
       </c>
       <c r="B41" s="5">
-        <v>20240207008</v>
+        <v>20240103032</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
@@ -10710,18 +11088,18 @@
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="49">
-        <v>1600</v>
+        <v>11000</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H41" s="7">
-        <f>'02'!AM38</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="52">
-        <f t="shared" si="0"/>
-        <v>-1600</v>
+        <f>'02'!AM13</f>
+        <v>11000</v>
+      </c>
+      <c r="I41" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>61</v>
@@ -10729,10 +11107,10 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="8">
-        <v>45364</v>
+        <v>45315</v>
       </c>
       <c r="B42" s="5">
-        <v>20240312054</v>
+        <v>20240124006</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
@@ -10740,207 +11118,224 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="49">
-        <v>1100</v>
+        <v>5000</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H42" s="7">
-        <f>'03'!AN42</f>
-        <v>0</v>
+        <f>'03'!AO17</f>
+        <v>3204</v>
       </c>
       <c r="I42" s="52">
-        <f t="shared" ref="I42" si="3">H42-F42</f>
-        <v>-1100</v>
+        <f t="shared" si="0"/>
+        <v>-1796</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="8"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="8">
+        <v>45329</v>
+      </c>
+      <c r="B43" s="5">
+        <v>20240207008</v>
+      </c>
       <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="7"/>
-      <c r="J43" s="5"/>
+      <c r="F43" s="49">
+        <v>1600</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="7">
+        <f>'02'!AM38</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="52">
+        <f t="shared" si="0"/>
+        <v>-1600</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="8">
-        <v>45309</v>
+        <v>45364</v>
       </c>
       <c r="B44" s="5">
-        <v>20240118012</v>
+        <v>20240312054</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="49">
+        <v>1100</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" s="7">
+        <f>'03'!AO42</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="52">
+        <f t="shared" ref="I44" si="5">H44-F44</f>
+        <v>-1100</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="8"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="7"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="8">
+        <v>45309</v>
+      </c>
+      <c r="B46" s="5">
+        <v>20240118012</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E46" s="5">
         <v>0.91500000000000004</v>
       </c>
-      <c r="F44" s="49">
+      <c r="F46" s="49">
         <v>14100</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H44" s="7">
+      <c r="G46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="7">
         <f>'02'!AM21</f>
         <v>14100</v>
       </c>
-      <c r="I44" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="8">
+      <c r="I46" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="8">
         <v>45364</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B47" s="5">
         <v>20240312055</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="49">
-        <v>21000</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H45" s="7">
-        <f>'03'!AN43</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="54">
-        <f t="shared" ref="I45" si="4">H45-F45</f>
-        <v>-21000</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="8"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="7"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="4">
-        <v>45254</v>
-      </c>
-      <c r="B47" s="5">
-        <v>20240124004</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="49">
+        <v>21000</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" s="7">
+        <f>'03'!AO43</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="54">
+        <f t="shared" ref="I47" si="6">H47-F47</f>
+        <v>-21000</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="8"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="7"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="4">
+        <v>45254</v>
+      </c>
+      <c r="B49" s="5">
+        <v>20240124004</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E49" s="5">
         <v>1.83</v>
       </c>
-      <c r="F47" s="49">
+      <c r="F49" s="49">
         <v>5000</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H47" s="7">
+      <c r="G49" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" s="7">
         <f>'02'!AM26</f>
         <v>5000</v>
       </c>
-      <c r="I47" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="8">
+      <c r="I49" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="8">
         <v>45329</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B50" s="5">
         <v>20240207009</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="49">
-        <v>11000</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H48" s="7">
-        <f>'03'!AN27</f>
-        <v>11000</v>
-      </c>
-      <c r="I48" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="7"/>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="4">
-        <v>45254</v>
-      </c>
-      <c r="B50" s="5">
-        <v>20240124005</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="5">
-        <v>3.05</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E50" s="5"/>
       <c r="F50" s="49">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H50" s="7">
-        <f>'03'!AN16</f>
-        <v>5011</v>
-      </c>
-      <c r="I50" s="57">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>'03'!AO27</f>
+        <v>11000</v>
+      </c>
+      <c r="I50" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>61</v>
@@ -10958,102 +11353,102 @@
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="8">
-        <v>45302</v>
+      <c r="A52" s="4">
+        <v>45254</v>
       </c>
       <c r="B52" s="5">
-        <v>20240111001</v>
+        <v>20240124005</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="5">
+        <v>3.05</v>
+      </c>
+      <c r="F52" s="49">
+        <v>5000</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" s="7">
+        <f>'03'!AO16</f>
+        <v>5011</v>
+      </c>
+      <c r="I52" s="57">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="7"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="8">
+        <v>45302</v>
+      </c>
+      <c r="B54" s="5">
+        <v>20240111001</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E54" s="5">
         <v>4.57</v>
       </c>
-      <c r="F52" s="49">
+      <c r="F54" s="49">
         <v>3000</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H52" s="7">
+      <c r="G54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" s="7">
         <f>'02'!AM19</f>
         <v>3000</v>
       </c>
-      <c r="I52" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="8">
+      <c r="I54" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="8">
         <v>45329</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B55" s="5">
         <v>20240207010</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5" t="s">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="49">
+      <c r="E55" s="5"/>
+      <c r="F55" s="49">
         <v>900</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H53" s="7">
+      <c r="G55" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" s="7">
         <f>'02'!AM40</f>
         <v>900</v>
       </c>
-      <c r="I53" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="7"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="4">
-        <v>45257</v>
-      </c>
-      <c r="B55" s="5">
-        <v>20231213004</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="5">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="F55" s="49">
-        <v>21000</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H55" s="7">
-        <f>'02'!AM11</f>
-        <v>21000</v>
-      </c>
       <c r="I55" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11063,59 +11458,42 @@
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="4">
-        <v>45302</v>
-      </c>
-      <c r="B56" s="5">
-        <v>20240111009</v>
-      </c>
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="D56" s="5"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="49">
-        <v>10000</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H56" s="7">
-        <f>'02'!AM17</f>
-        <v>10000</v>
-      </c>
-      <c r="I56" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="F56" s="49"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="7"/>
+      <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="4">
-        <v>45335</v>
+        <v>45257</v>
       </c>
       <c r="B57" s="5">
-        <v>20240213001</v>
+        <v>20231213004</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E57" s="5"/>
+      <c r="E57" s="5">
+        <v>1.0900000000000001</v>
+      </c>
       <c r="F57" s="49">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H57" s="7">
-        <f>'02'!AM42</f>
-        <v>10000</v>
+        <f>'02'!AM11</f>
+        <v>21000</v>
       </c>
       <c r="I57" s="53">
-        <f>H57-F57</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J57" s="5" t="s">
@@ -11123,11 +11501,11 @@
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="8">
-        <v>45352</v>
+      <c r="A58" s="4">
+        <v>45302</v>
       </c>
       <c r="B58" s="5">
-        <v>20240301008</v>
+        <v>20240111009</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5" t="s">
@@ -11135,134 +11513,134 @@
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="49">
+        <v>10000</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H58" s="7">
+        <f>'02'!AM17</f>
+        <v>10000</v>
+      </c>
+      <c r="I58" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="4">
+        <v>45335</v>
+      </c>
+      <c r="B59" s="5">
+        <v>20240213001</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="49">
+        <v>10000</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H59" s="7">
+        <f>'02'!AM42</f>
+        <v>10000</v>
+      </c>
+      <c r="I59" s="53">
+        <f>H59-F59</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="8">
+        <v>45352</v>
+      </c>
+      <c r="B60" s="5">
+        <v>20240301008</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="49">
         <v>12000</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H58" s="7">
-        <f>'03'!AN38</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="54">
-        <f>H58-F58</f>
+      <c r="G60" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H60" s="7">
+        <f>'03'!AO38</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="54">
+        <f>H60-F60</f>
         <v>-12000</v>
       </c>
-      <c r="J58" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="7"/>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="4">
+      <c r="J60" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="7"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="4">
         <v>45206</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B62" s="5">
         <v>20231007001</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C62" s="5">
         <v>20231007012</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E62" s="5">
         <v>1.56</v>
       </c>
-      <c r="F60" s="49">
+      <c r="F62" s="49">
         <v>82000</v>
       </c>
-      <c r="G60" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H60" s="7">
+      <c r="G62" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H62" s="7">
         <f>'01'!AM10</f>
         <v>82001</v>
       </c>
-      <c r="I60" s="57">
+      <c r="I62" s="57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J60" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="4">
+      <c r="J62" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="4">
         <v>45302</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B63" s="5">
         <v>20240111008</v>
-      </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="49">
-        <v>40000</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H61" s="7">
-        <f>'03'!AN10</f>
-        <v>40000</v>
-      </c>
-      <c r="I61" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="8">
-        <v>45329</v>
-      </c>
-      <c r="B62" s="5">
-        <v>20240207011</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="49">
-        <v>15000</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H62" s="7">
-        <f>'03'!AN28</f>
-        <v>3668</v>
-      </c>
-      <c r="I62" s="52">
-        <f t="shared" si="0"/>
-        <v>-11332</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="8">
-        <v>45352</v>
-      </c>
-      <c r="B63" s="5">
-        <v>20240301006</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
@@ -11270,18 +11648,18 @@
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="49">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H63" s="7">
-        <f>'03'!AN36</f>
-        <v>0</v>
-      </c>
-      <c r="I63" s="52">
-        <f>H63-F63</f>
-        <v>-30000</v>
+        <f>'03'!AO10</f>
+        <v>40000</v>
+      </c>
+      <c r="I63" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>61</v>
@@ -11289,10 +11667,10 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="8">
-        <v>45352</v>
+        <v>45329</v>
       </c>
       <c r="B64" s="5">
-        <v>20240301007</v>
+        <v>20240207011</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
@@ -11300,304 +11678,396 @@
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="49">
+        <v>15000</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H64" s="7">
+        <f>'03'!AO28</f>
+        <v>3668</v>
+      </c>
+      <c r="I64" s="52">
+        <f t="shared" si="0"/>
+        <v>-11332</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="8">
+        <v>45352</v>
+      </c>
+      <c r="B65" s="5">
+        <v>20240301006</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="49">
+        <v>30000</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H65" s="7">
+        <f>'03'!AO36</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="52">
+        <f>H65-F65</f>
+        <v>-30000</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="8">
+        <v>45352</v>
+      </c>
+      <c r="B66" s="5">
+        <v>20240301007</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="49">
         <v>25000</v>
       </c>
-      <c r="G64" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H64" s="7">
-        <f>'03'!AN37</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="52">
-        <f>H64-F64</f>
+      <c r="G66" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H66" s="7">
+        <f>'03'!AO37</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="52">
+        <f>H66-F66</f>
         <v>-25000</v>
       </c>
-      <c r="J64" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="11">
+      <c r="J66" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="11">
         <v>45294</v>
       </c>
-      <c r="B66" s="12">
+      <c r="B68" s="12">
         <v>20240103028</v>
-      </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" s="12">
-        <v>1.59</v>
-      </c>
-      <c r="F66" s="51">
-        <v>36000</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H66" s="10">
-        <f>'02'!AM14</f>
-        <v>36000</v>
-      </c>
-      <c r="I66" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="11">
-        <v>45313</v>
-      </c>
-      <c r="B67" s="12">
-        <v>20240122001</v>
-      </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="51">
-        <v>75000</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H67" s="10">
-        <f>'03'!AN13</f>
-        <v>50565</v>
-      </c>
-      <c r="I67" s="52">
-        <f t="shared" si="0"/>
-        <v>-24435</v>
-      </c>
-      <c r="J67" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="11">
-        <v>45328</v>
-      </c>
-      <c r="B68" s="12">
-        <v>20240206022</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E68" s="12"/>
+      <c r="E68" s="12">
+        <v>1.59</v>
+      </c>
       <c r="F68" s="51">
+        <v>36000</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H68" s="10">
+        <f>'02'!AM14</f>
+        <v>36000</v>
+      </c>
+      <c r="I68" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="11">
+        <v>45313</v>
+      </c>
+      <c r="B69" s="12">
+        <v>20240122001</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="51">
+        <v>75000</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H69" s="10">
+        <f>'03'!AO13</f>
+        <v>69622</v>
+      </c>
+      <c r="I69" s="52">
+        <f t="shared" si="0"/>
+        <v>-5378</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="11">
+        <v>45328</v>
+      </c>
+      <c r="B70" s="12">
+        <v>20240206022</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="51">
         <v>30000</v>
       </c>
-      <c r="G68" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H68" s="10">
-        <f>'03'!AN20</f>
-        <v>0</v>
-      </c>
-      <c r="I68" s="52">
+      <c r="G70" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H70" s="10">
+        <f>'03'!AO20</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="52">
         <f t="shared" si="0"/>
         <v>-30000</v>
       </c>
-      <c r="J68" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="11">
+      <c r="J70" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O70" s="69"/>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="H71" s="7"/>
+      <c r="O71" s="69"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="11">
         <v>45294</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B72" s="2">
         <v>20240103033</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E72" s="2">
         <v>1.4750000000000001</v>
       </c>
-      <c r="F70" s="52">
+      <c r="F72" s="52">
         <v>5000</v>
       </c>
-      <c r="G70" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H70" s="7">
-        <f>'03'!AN9</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="52">
+      <c r="G72" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H72" s="7">
+        <f>'03'!AO9</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="52">
         <f t="shared" si="0"/>
         <v>-5000</v>
       </c>
-      <c r="J70" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="11">
+      <c r="J72" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="11">
         <v>45339</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B73" s="2">
         <v>20240217007</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F71" s="52">
+      <c r="F73" s="52">
         <v>10000</v>
       </c>
-      <c r="G71" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H71" s="7">
-        <f>'03'!AN30</f>
-        <v>0</v>
-      </c>
-      <c r="I71" s="52">
+      <c r="G73" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H73" s="7">
+        <f>'03'!AO30</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="52">
         <f t="shared" si="0"/>
         <v>-10000</v>
       </c>
-      <c r="J71" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="8">
+      <c r="J73" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="8">
         <v>45321</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B75" s="5">
         <v>20240130001</v>
       </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5" t="s">
+      <c r="C75" s="5"/>
+      <c r="D75" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E75" s="5">
         <v>1.5549999999999999</v>
       </c>
-      <c r="F73" s="49">
+      <c r="F75" s="49">
         <v>100000</v>
       </c>
-      <c r="G73" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H73" s="7">
-        <f>'03'!AN18</f>
-        <v>74940</v>
-      </c>
-      <c r="I73" s="52">
-        <f t="shared" si="0"/>
-        <v>-25060</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="8">
+      <c r="G75" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H75" s="7">
+        <f>'03'!AO18</f>
+        <v>99900</v>
+      </c>
+      <c r="I75" s="52">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="8">
         <v>45355</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B76" s="5">
         <v>20240304012</v>
       </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5" t="s">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E74" s="5"/>
-      <c r="F74" s="49">
+      <c r="E76" s="5"/>
+      <c r="F76" s="49">
         <v>100000</v>
       </c>
-      <c r="G74" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H74" s="7">
-        <f>'03'!AN39</f>
-        <v>0</v>
-      </c>
-      <c r="I74" s="52">
-        <f>H74-F74</f>
-        <v>-100000</v>
-      </c>
-      <c r="J74" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="11">
+      <c r="G76" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H76" s="7">
+        <f>'03'!AO39</f>
+        <v>56656</v>
+      </c>
+      <c r="I76" s="52">
+        <f>H76-F76</f>
+        <v>-43344</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="8">
+        <v>45364</v>
+      </c>
+      <c r="B77" s="5">
+        <v>20240313003</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="49">
+        <v>150000</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H77" s="7">
+        <f>'03'!AO44</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="52">
+        <f>H77-F77</f>
+        <v>-150000</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="11">
         <v>45335</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B79" s="2">
         <v>20240213002</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E79" s="2">
         <v>1.5249999999999999</v>
       </c>
-      <c r="F76" s="52">
+      <c r="F79" s="52">
         <v>20000</v>
       </c>
-      <c r="G76" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H76" s="2">
-        <f>'03'!AN29</f>
+      <c r="G79" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H79" s="2">
+        <f>'03'!AO29</f>
         <v>20000</v>
       </c>
-      <c r="I76" s="53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="8">
+      <c r="I79" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="8">
         <v>45352</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B80" s="2">
         <v>20240301005</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F77" s="52">
+      <c r="F80" s="52">
         <v>66000</v>
       </c>
-      <c r="G77" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H77" s="2">
-        <f>'03'!AN35</f>
+      <c r="G80" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H80" s="2">
+        <f>'03'!AO35</f>
         <v>2250</v>
       </c>
-      <c r="I77" s="52">
+      <c r="I80" s="52">
         <f t="shared" si="0"/>
         <v>-63750</v>
       </c>
-      <c r="J77" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L77" s="52"/>
+      <c r="J80" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L80" s="52"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J118"/>
+  <autoFilter ref="A1:J121"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Laporan/2024/2024Laporan Produk Jadi Kabel - 线材成品.xlsx
+++ b/Laporan/2024/2024Laporan Produk Jadi Kabel - 线材成品.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="272" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="272" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="5" r:id="rId1"/>
     <sheet name="02" sheetId="7" r:id="rId2"/>
     <sheet name="03" sheetId="8" r:id="rId3"/>
-    <sheet name="Rekapan" sheetId="6" r:id="rId4"/>
+    <sheet name="04" sheetId="10" r:id="rId4"/>
+    <sheet name="Rekapan" sheetId="6" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01'!$A$7:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'02'!$A$7:$G$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'03'!$A$7:$G$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Rekapan!$A$1:$J$121</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Rekapan!$A$1:$J$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'04'!$A$7:$G$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Rekapan!$A$1:$J$121</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Rekapan!$A$1:$J$62</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="64">
   <si>
     <t>LAPORAN PRODUK JADI KAWAT - 线材成品</t>
   </si>
@@ -239,12 +241,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="[$-409]mmm;@"/>
-    <numFmt numFmtId="170" formatCode="#,##0\ &quot;PCS&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0.000"/>
-    <numFmt numFmtId="172" formatCode="#\ &quot;PCS&quot;"/>
-    <numFmt numFmtId="173" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmm;@"/>
+    <numFmt numFmtId="166" formatCode="#,##0\ &quot;PCS&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="168" formatCode="#\ &quot;PCS&quot;"/>
+    <numFmt numFmtId="169" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -288,7 +290,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,6 +336,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -482,7 +496,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -533,13 +547,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -548,13 +562,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -563,7 +577,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,13 +589,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,22 +604,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -620,7 +634,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -644,19 +658,19 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -670,6 +684,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -686,20 +709,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -709,6 +723,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -997,6 +1026,99 @@
         <a:xfrm>
           <a:off x="20354925" y="57150"/>
           <a:ext cx="923925" cy="1024890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>451709</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>599628</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>110233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10633934" y="50107"/>
+          <a:ext cx="747994" cy="1012626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>490257</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>42583</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>129934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17873382" y="57152"/>
+          <a:ext cx="752476" cy="1025282"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1384,329 +1506,329 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1">
-      <c r="A1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="78"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="78"/>
-      <c r="AL4" s="78"/>
-      <c r="AM4" s="78"/>
-      <c r="AN4" s="78"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="78"/>
-      <c r="AD5" s="78"/>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="78"/>
-      <c r="AG5" s="78"/>
-      <c r="AH5" s="78"/>
-      <c r="AI5" s="78"/>
-      <c r="AJ5" s="78"/>
-      <c r="AK5" s="78"/>
-      <c r="AL5" s="78"/>
-      <c r="AM5" s="78"/>
-      <c r="AN5" s="78"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73"/>
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="73"/>
+      <c r="AL5" s="73"/>
+      <c r="AM5" s="73"/>
+      <c r="AN5" s="73"/>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="78"/>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="78"/>
-      <c r="AK6" s="78"/>
-      <c r="AL6" s="78"/>
-      <c r="AM6" s="78"/>
-      <c r="AN6" s="78"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="73"/>
+      <c r="AH6" s="73"/>
+      <c r="AI6" s="73"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="73"/>
+      <c r="AL6" s="73"/>
+      <c r="AM6" s="73"/>
+      <c r="AN6" s="73"/>
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="73"/>
-      <c r="AM7" s="76" t="s">
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="76"/>
+      <c r="AM7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AN7" s="76" t="s">
+      <c r="AN7" s="71" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="25">
         <v>45291</v>
       </c>
@@ -1800,8 +1922,8 @@
       <c r="AL8" s="48">
         <v>45321</v>
       </c>
-      <c r="AM8" s="77"/>
-      <c r="AN8" s="77"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
     </row>
     <row r="9" spans="1:40">
       <c r="A9" s="29" t="s">
@@ -3877,329 +3999,329 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="78"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="78"/>
-      <c r="AL4" s="78"/>
-      <c r="AM4" s="78"/>
-      <c r="AN4" s="78"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="78"/>
-      <c r="AD5" s="78"/>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="78"/>
-      <c r="AG5" s="80"/>
-      <c r="AH5" s="78"/>
-      <c r="AI5" s="78"/>
-      <c r="AJ5" s="78"/>
-      <c r="AK5" s="78"/>
-      <c r="AL5" s="78"/>
-      <c r="AM5" s="78"/>
-      <c r="AN5" s="78"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73"/>
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="73"/>
+      <c r="AL5" s="73"/>
+      <c r="AM5" s="73"/>
+      <c r="AN5" s="73"/>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="78"/>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="78"/>
-      <c r="AK6" s="78"/>
-      <c r="AL6" s="78"/>
-      <c r="AM6" s="78"/>
-      <c r="AN6" s="78"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="79"/>
+      <c r="AH6" s="73"/>
+      <c r="AI6" s="73"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="73"/>
+      <c r="AL6" s="73"/>
+      <c r="AM6" s="73"/>
+      <c r="AN6" s="73"/>
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="79"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="73"/>
-      <c r="AM7" s="76" t="s">
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="80"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="76"/>
+      <c r="AM7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AN7" s="76" t="s">
+      <c r="AN7" s="71" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="25">
         <v>45322</v>
       </c>
@@ -4293,8 +4415,8 @@
       <c r="AL8" s="48">
         <v>45352</v>
       </c>
-      <c r="AM8" s="77"/>
-      <c r="AN8" s="77"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
     </row>
     <row r="9" spans="1:40">
       <c r="A9" s="29" t="s">
@@ -6784,10 +6906,10 @@
   <dimension ref="A1:AP49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="AK27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="AK9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomRight" activeCell="AO25" sqref="AO25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6825,291 +6947,291 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="15" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="78"/>
-      <c r="AO2" s="78"/>
-      <c r="AP2" s="78"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
     </row>
     <row r="3" spans="1:42" ht="15" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="78"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
     </row>
     <row r="4" spans="1:42" ht="15" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="80"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="80"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="78"/>
-      <c r="AK4" s="78"/>
-      <c r="AL4" s="78"/>
-      <c r="AM4" s="78"/>
-      <c r="AN4" s="78"/>
-      <c r="AO4" s="78"/>
-      <c r="AP4" s="78"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="73"/>
+      <c r="AP4" s="73"/>
     </row>
     <row r="5" spans="1:42" ht="15" customHeight="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="78"/>
-      <c r="AD5" s="78"/>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="78"/>
-      <c r="AG5" s="80"/>
-      <c r="AH5" s="78"/>
-      <c r="AI5" s="78"/>
-      <c r="AJ5" s="78"/>
-      <c r="AK5" s="78"/>
-      <c r="AL5" s="78"/>
-      <c r="AM5" s="78"/>
-      <c r="AN5" s="78"/>
-      <c r="AO5" s="78"/>
-      <c r="AP5" s="78"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73"/>
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="73"/>
+      <c r="AL5" s="73"/>
+      <c r="AM5" s="73"/>
+      <c r="AN5" s="73"/>
+      <c r="AO5" s="73"/>
+      <c r="AP5" s="73"/>
     </row>
     <row r="6" spans="1:42" ht="15" customHeight="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="78"/>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="78"/>
-      <c r="AK6" s="78"/>
-      <c r="AL6" s="78"/>
-      <c r="AM6" s="78"/>
-      <c r="AN6" s="78"/>
-      <c r="AO6" s="78"/>
-      <c r="AP6" s="78"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="79"/>
+      <c r="AH6" s="73"/>
+      <c r="AI6" s="73"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="73"/>
+      <c r="AL6" s="73"/>
+      <c r="AM6" s="73"/>
+      <c r="AN6" s="73"/>
+      <c r="AO6" s="73"/>
+      <c r="AP6" s="73"/>
     </row>
     <row r="7" spans="1:42" ht="15" customHeight="1">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="77" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="81" t="s">
@@ -7147,21 +7269,21 @@
       <c r="AL7" s="82"/>
       <c r="AM7" s="83"/>
       <c r="AN7" s="53"/>
-      <c r="AO7" s="76" t="s">
+      <c r="AO7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AP7" s="76" t="s">
+      <c r="AP7" s="71" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:42">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="25">
         <v>45351</v>
       </c>
@@ -7259,8 +7381,8 @@
         <v>45382</v>
       </c>
       <c r="AN8" s="54"/>
-      <c r="AO8" s="77"/>
-      <c r="AP8" s="77"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" s="26" t="s">
@@ -10014,11 +10136,1983 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="AL15" sqref="AL15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="9" style="2"/>
+    <col min="11" max="13" width="9" style="10"/>
+    <col min="14" max="14" width="9" style="24"/>
+    <col min="15" max="15" width="9" style="88"/>
+    <col min="16" max="20" width="9" style="10"/>
+    <col min="21" max="21" width="9" style="24"/>
+    <col min="22" max="22" width="9" style="88"/>
+    <col min="23" max="27" width="9" style="10"/>
+    <col min="28" max="28" width="9" style="24"/>
+    <col min="29" max="29" width="9" style="88"/>
+    <col min="30" max="34" width="9" style="10"/>
+    <col min="35" max="35" width="9" style="24"/>
+    <col min="36" max="36" width="9" style="88"/>
+    <col min="37" max="39" width="9" style="10"/>
+    <col min="40" max="40" width="9" style="24"/>
+    <col min="41" max="41" width="13" style="2" customWidth="1"/>
+    <col min="42" max="42" width="13.7109375" style="2" customWidth="1"/>
+    <col min="43" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" ht="15" customHeight="1">
+      <c r="A1" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+    </row>
+    <row r="2" spans="1:42" ht="15" customHeight="1">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+    </row>
+    <row r="3" spans="1:42" ht="15" customHeight="1">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+    </row>
+    <row r="4" spans="1:42" ht="15" customHeight="1">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="73"/>
+      <c r="AP4" s="73"/>
+    </row>
+    <row r="5" spans="1:42" ht="15" customHeight="1">
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73"/>
+      <c r="AJ5" s="73"/>
+      <c r="AK5" s="73"/>
+      <c r="AL5" s="73"/>
+      <c r="AM5" s="73"/>
+      <c r="AN5" s="73"/>
+      <c r="AO5" s="73"/>
+      <c r="AP5" s="73"/>
+    </row>
+    <row r="6" spans="1:42" ht="15" customHeight="1">
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="79"/>
+      <c r="AH6" s="73"/>
+      <c r="AI6" s="73"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="73"/>
+      <c r="AL6" s="73"/>
+      <c r="AM6" s="73"/>
+      <c r="AN6" s="73"/>
+      <c r="AO6" s="73"/>
+      <c r="AP6" s="73"/>
+    </row>
+    <row r="7" spans="1:42" ht="15" customHeight="1">
+      <c r="A7" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="82"/>
+      <c r="AK7" s="82"/>
+      <c r="AL7" s="82"/>
+      <c r="AM7" s="83"/>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP7" s="71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="25">
+        <v>45352</v>
+      </c>
+      <c r="I8" s="48">
+        <v>45383</v>
+      </c>
+      <c r="J8" s="48">
+        <v>45384</v>
+      </c>
+      <c r="K8" s="48">
+        <v>45385</v>
+      </c>
+      <c r="L8" s="48">
+        <v>45386</v>
+      </c>
+      <c r="M8" s="48">
+        <v>45387</v>
+      </c>
+      <c r="N8" s="48">
+        <v>45388</v>
+      </c>
+      <c r="O8" s="48">
+        <v>45389</v>
+      </c>
+      <c r="P8" s="48">
+        <v>45390</v>
+      </c>
+      <c r="Q8" s="48">
+        <v>45391</v>
+      </c>
+      <c r="R8" s="48">
+        <v>45392</v>
+      </c>
+      <c r="S8" s="48">
+        <v>45393</v>
+      </c>
+      <c r="T8" s="48">
+        <v>45394</v>
+      </c>
+      <c r="U8" s="48">
+        <v>45395</v>
+      </c>
+      <c r="V8" s="48">
+        <v>45396</v>
+      </c>
+      <c r="W8" s="48">
+        <v>45397</v>
+      </c>
+      <c r="X8" s="48">
+        <v>45398</v>
+      </c>
+      <c r="Y8" s="48">
+        <v>45399</v>
+      </c>
+      <c r="Z8" s="48">
+        <v>45400</v>
+      </c>
+      <c r="AA8" s="48">
+        <v>45401</v>
+      </c>
+      <c r="AB8" s="48">
+        <v>45402</v>
+      </c>
+      <c r="AC8" s="48">
+        <v>45403</v>
+      </c>
+      <c r="AD8" s="48">
+        <v>45404</v>
+      </c>
+      <c r="AE8" s="48">
+        <v>45405</v>
+      </c>
+      <c r="AF8" s="48">
+        <v>45406</v>
+      </c>
+      <c r="AG8" s="48">
+        <v>45407</v>
+      </c>
+      <c r="AH8" s="48">
+        <v>45408</v>
+      </c>
+      <c r="AI8" s="48">
+        <v>45409</v>
+      </c>
+      <c r="AJ8" s="48">
+        <v>45410</v>
+      </c>
+      <c r="AK8" s="48">
+        <v>45411</v>
+      </c>
+      <c r="AL8" s="48">
+        <v>45412</v>
+      </c>
+      <c r="AM8" s="84"/>
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="A9" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="26">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="E9" s="26">
+        <v>20240103033</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27">
+        <v>5000</v>
+      </c>
+      <c r="H9" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E9,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E9,'03'!$AO$7:$AO$460)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="85"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="85"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO9" s="28">
+        <f t="shared" ref="AO9:AO17" si="0">SUM(H9:AM9)</f>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="58">
+        <f t="shared" ref="AP9:AP29" si="1">AO9-G9+AN9</f>
+        <v>-4900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="31">
+        <v>1.59</v>
+      </c>
+      <c r="E10" s="31">
+        <v>20240122001</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32">
+        <v>75000</v>
+      </c>
+      <c r="H10" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E10,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E10,'03'!$AO$7:$AO$460)),0)</f>
+        <v>69622</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26">
+        <v>5278</v>
+      </c>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="85"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO10" s="28">
+        <f t="shared" si="0"/>
+        <v>74900</v>
+      </c>
+      <c r="AP10" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="A11" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="26">
+        <v>4.55</v>
+      </c>
+      <c r="E11" s="34">
+        <v>20240124006</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="27">
+        <v>5000</v>
+      </c>
+      <c r="H11" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E11,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E11,'03'!$AO$7:$AO$460)),0)</f>
+        <v>3606</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="85"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="85"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO11" s="28">
+        <f t="shared" si="0"/>
+        <v>3606</v>
+      </c>
+      <c r="AP11" s="58">
+        <f t="shared" si="1"/>
+        <v>-1294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
+      <c r="A12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="26">
+        <v>1.59</v>
+      </c>
+      <c r="E12" s="26">
+        <v>20240206022</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27">
+        <v>30000</v>
+      </c>
+      <c r="H12" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E12,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E12,'03'!$AO$7:$AO$460)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26">
+        <f>21841 - 5278</f>
+        <v>16563</v>
+      </c>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="85"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="85"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO12" s="28">
+        <f t="shared" si="0"/>
+        <v>16563</v>
+      </c>
+      <c r="AP12" s="58">
+        <f t="shared" si="1"/>
+        <v>-13337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42">
+      <c r="A13" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="26">
+        <v>1.82</v>
+      </c>
+      <c r="E13" s="34">
+        <v>20240207006</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="27">
+        <v>20200</v>
+      </c>
+      <c r="H13" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E13,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E13,'03'!$AO$7:$AO$460)),0)</f>
+        <v>19272</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="55"/>
+      <c r="AJ13" s="85"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO13" s="28">
+        <f t="shared" si="0"/>
+        <v>19272</v>
+      </c>
+      <c r="AP13" s="58">
+        <f t="shared" si="1"/>
+        <v>-828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="34">
+        <v>3.03</v>
+      </c>
+      <c r="E14" s="34">
+        <v>20240207007</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="27">
+        <v>11700</v>
+      </c>
+      <c r="H14" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E14,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E14,'03'!$AO$7:$AO$460)),0)</f>
+        <v>11600</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="85"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="85"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO14" s="28">
+        <f t="shared" si="0"/>
+        <v>11600</v>
+      </c>
+      <c r="AP14" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42">
+      <c r="A15" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="26">
+        <v>4.55</v>
+      </c>
+      <c r="E15" s="34">
+        <v>20240207008</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="27">
+        <v>1600</v>
+      </c>
+      <c r="H15" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E15,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E15,'03'!$AO$7:$AO$460)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="55"/>
+      <c r="AJ15" s="85"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO15" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP15" s="58">
+        <f t="shared" si="1"/>
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="A16" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="26">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="E16" s="26">
+        <v>20240217007</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27">
+        <v>10000</v>
+      </c>
+      <c r="H16" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E16,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E16,'03'!$AO$7:$AO$460)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="85"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="55"/>
+      <c r="AJ16" s="85"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO16" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP16" s="58">
+        <f t="shared" si="1"/>
+        <v>-9900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42">
+      <c r="A17" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="26">
+        <v>1.82</v>
+      </c>
+      <c r="E17" s="26">
+        <v>20240217008</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="27">
+        <v>10000</v>
+      </c>
+      <c r="H17" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E17,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E17,'03'!$AO$7:$AO$460)),0)</f>
+        <v>9348</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="85"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="55"/>
+      <c r="AJ17" s="85"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO17" s="28">
+        <f t="shared" si="0"/>
+        <v>9348</v>
+      </c>
+      <c r="AP17" s="58">
+        <f t="shared" si="1"/>
+        <v>-552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42">
+      <c r="A18" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="31">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="E18" s="31">
+        <v>20240301002</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32">
+        <v>130000</v>
+      </c>
+      <c r="H18" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E18,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E18,'03'!$AO$7:$AO$460)),0)</f>
+        <v>125800</v>
+      </c>
+      <c r="I18" s="26">
+        <v>4100</v>
+      </c>
+      <c r="J18" s="26"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="55"/>
+      <c r="AC18" s="85"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="55"/>
+      <c r="AJ18" s="85"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO18" s="28">
+        <f t="shared" ref="AO18:AO22" si="2">SUM(H18:AM18)</f>
+        <v>129900</v>
+      </c>
+      <c r="AP18" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42">
+      <c r="A19" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="34">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="E19" s="34">
+        <v>20240301003</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="27">
+        <v>90000</v>
+      </c>
+      <c r="H19" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E19,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E19,'03'!$AO$7:$AO$460)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="26">
+        <f>18616 - 4100</f>
+        <v>14516</v>
+      </c>
+      <c r="J19" s="26"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="85"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="55"/>
+      <c r="AJ19" s="85"/>
+      <c r="AK19" s="34"/>
+      <c r="AL19" s="34"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO19" s="28">
+        <f t="shared" si="2"/>
+        <v>14516</v>
+      </c>
+      <c r="AP19" s="58">
+        <f t="shared" si="1"/>
+        <v>-75384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42">
+      <c r="A20" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="38">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="E20" s="38">
+        <v>20240301005</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39">
+        <v>66000</v>
+      </c>
+      <c r="H20" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E20,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E20,'03'!$AO$7:$AO$460)),0)</f>
+        <v>2250</v>
+      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="86"/>
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="40"/>
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO20" s="28">
+        <f t="shared" si="2"/>
+        <v>2250</v>
+      </c>
+      <c r="AP20" s="58">
+        <f t="shared" si="1"/>
+        <v>-63650</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42">
+      <c r="A21" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="33">
+        <v>1.56</v>
+      </c>
+      <c r="E21" s="34">
+        <v>20240301007</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="39">
+        <v>25000</v>
+      </c>
+      <c r="H21" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E21,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E21,'03'!$AO$7:$AO$460)),0)</f>
+        <v>4033</v>
+      </c>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="86"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="86"/>
+      <c r="AK21" s="40"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="40"/>
+      <c r="AN21" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO21" s="28">
+        <f t="shared" si="2"/>
+        <v>4033</v>
+      </c>
+      <c r="AP21" s="58">
+        <f t="shared" si="1"/>
+        <v>-20867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42">
+      <c r="A22" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="40">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E22" s="40">
+        <v>20240301008</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="39">
+        <v>12000</v>
+      </c>
+      <c r="H22" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E22,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E22,'03'!$AO$7:$AO$460)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="86"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="86"/>
+      <c r="AK22" s="40"/>
+      <c r="AL22" s="40"/>
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO22" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP22" s="58">
+        <f t="shared" si="1"/>
+        <v>-11900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42">
+      <c r="A23" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="26">
+        <v>1.82</v>
+      </c>
+      <c r="E23" s="34">
+        <v>20240312052</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="27">
+        <v>24050</v>
+      </c>
+      <c r="H23" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E23,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E23,'03'!$AO$7:$AO$460)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="85"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="85"/>
+      <c r="AK23" s="34"/>
+      <c r="AL23" s="34"/>
+      <c r="AM23" s="34"/>
+      <c r="AN23" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO23" s="28">
+        <f t="shared" ref="AO23:AO26" si="3">SUM(H23:AM23)</f>
+        <v>0</v>
+      </c>
+      <c r="AP23" s="58">
+        <f t="shared" si="1"/>
+        <v>-23950</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42">
+      <c r="A24" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="26">
+        <v>3.03</v>
+      </c>
+      <c r="E24" s="34">
+        <v>20240312053</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="27">
+        <v>6600</v>
+      </c>
+      <c r="H24" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E24,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E24,'03'!$AO$7:$AO$460)),0)</f>
+        <v>3535</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="85"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="34"/>
+      <c r="AH24" s="34"/>
+      <c r="AI24" s="55"/>
+      <c r="AJ24" s="85"/>
+      <c r="AK24" s="34"/>
+      <c r="AL24" s="34"/>
+      <c r="AM24" s="34"/>
+      <c r="AN24" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO24" s="28">
+        <f t="shared" si="3"/>
+        <v>3535</v>
+      </c>
+      <c r="AP24" s="58">
+        <f t="shared" si="1"/>
+        <v>-2965</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42">
+      <c r="A25" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="26">
+        <v>4.55</v>
+      </c>
+      <c r="E25" s="34">
+        <v>20240312054</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="27">
+        <v>1100</v>
+      </c>
+      <c r="H25" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E25,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E25,'03'!$AO$7:$AO$460)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="85"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="34"/>
+      <c r="AH25" s="34"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="85"/>
+      <c r="AK25" s="34"/>
+      <c r="AL25" s="34"/>
+      <c r="AM25" s="34"/>
+      <c r="AN25" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO25" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP25" s="58">
+        <f t="shared" si="1"/>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" s="10" customFormat="1">
+      <c r="A26" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="34">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="E26" s="34">
+        <v>20240312055</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="27">
+        <v>21000</v>
+      </c>
+      <c r="H26" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E26,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E26,'03'!$AO$7:$AO$460)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="85"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="85"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26" s="55"/>
+      <c r="AJ26" s="85"/>
+      <c r="AK26" s="34"/>
+      <c r="AL26" s="34"/>
+      <c r="AM26" s="34"/>
+      <c r="AN26" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO26" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP26" s="58">
+        <f t="shared" si="1"/>
+        <v>-20900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42">
+      <c r="A27" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="41">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="E27" s="26">
+        <v>20240313003</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="27">
+        <v>150000</v>
+      </c>
+      <c r="H27" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E27,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E27,'03'!$AO$7:$AO$460)),0)</f>
+        <v>16256</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="85"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="85"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="85"/>
+      <c r="AK27" s="34"/>
+      <c r="AL27" s="34"/>
+      <c r="AM27" s="34"/>
+      <c r="AN27" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO27" s="28">
+        <f t="shared" ref="AO27" si="4">SUM(H27:AM27)</f>
+        <v>16256</v>
+      </c>
+      <c r="AP27" s="58">
+        <f t="shared" si="1"/>
+        <v>-133644</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42">
+      <c r="A28" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="26">
+        <v>1.59</v>
+      </c>
+      <c r="E28" s="34">
+        <v>20240318001</v>
+      </c>
+      <c r="F28" s="34"/>
+      <c r="G28" s="27">
+        <v>110000</v>
+      </c>
+      <c r="H28" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E28,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E28,'03'!$AO$7:$AO$460)),0)</f>
+        <v>25734</v>
+      </c>
+      <c r="I28" s="26">
+        <v>11381</v>
+      </c>
+      <c r="J28" s="26">
+        <v>46000</v>
+      </c>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="85"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="55"/>
+      <c r="AJ28" s="85"/>
+      <c r="AK28" s="34"/>
+      <c r="AL28" s="34"/>
+      <c r="AM28" s="34"/>
+      <c r="AN28" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO28" s="28">
+        <f t="shared" ref="AO28" si="5">SUM(H28:AM28)</f>
+        <v>83115</v>
+      </c>
+      <c r="AP28" s="58">
+        <f t="shared" si="1"/>
+        <v>-26785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42">
+      <c r="A29" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="26">
+        <v>1.59</v>
+      </c>
+      <c r="E29" s="34">
+        <v>20240322001</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="G29" s="27">
+        <v>100000</v>
+      </c>
+      <c r="H29" s="28">
+        <f>IFERROR(IF(SUMIF('03'!$E$7:$E$460,E29,'03'!$AO$7:$AO$460)&lt;0,0,SUMIF('03'!$E$7:$E$460,E29,'03'!$AO$7:$AO$460)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="85"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="85"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="34"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="55"/>
+      <c r="AJ29" s="85"/>
+      <c r="AK29" s="34"/>
+      <c r="AL29" s="34"/>
+      <c r="AM29" s="34"/>
+      <c r="AN29" s="55">
+        <v>100</v>
+      </c>
+      <c r="AO29" s="28">
+        <f t="shared" ref="AO29" si="6">SUM(H29:AM29)</f>
+        <v>0</v>
+      </c>
+      <c r="AP29" s="58">
+        <f t="shared" si="1"/>
+        <v>-99900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="57"/>
+      <c r="AC30" s="87"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="57"/>
+      <c r="AJ30" s="87"/>
+      <c r="AK30" s="14"/>
+      <c r="AL30" s="14"/>
+      <c r="AM30" s="14"/>
+      <c r="AN30" s="57"/>
+      <c r="AO30" s="45"/>
+      <c r="AP30" s="60"/>
+    </row>
+    <row r="31" spans="1:42">
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="46">
+        <f>SUM(I$9:AM$1048576)</f>
+        <v>97838</v>
+      </c>
+      <c r="D31" s="46"/>
+    </row>
+    <row r="32" spans="1:42">
+      <c r="E32" s="47"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A7:G31"/>
+  <mergeCells count="11">
+    <mergeCell ref="AP7:AP8"/>
+    <mergeCell ref="A1:AP6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:AM7"/>
+    <mergeCell ref="AO7:AO8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -10273,12 +12367,12 @@
         <v>62</v>
       </c>
       <c r="H8" s="10">
-        <f>'03'!AO32</f>
-        <v>125800</v>
-      </c>
-      <c r="I8" s="3">
+        <f>'04'!AO18</f>
+        <v>129900</v>
+      </c>
+      <c r="I8" s="18">
         <f t="shared" si="0"/>
-        <v>-4200</v>
+        <v>-100</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>62</v>
@@ -10303,12 +12397,12 @@
         <v>62</v>
       </c>
       <c r="H9" s="10">
-        <f>'03'!AO33</f>
-        <v>0</v>
+        <f>'04'!AP19</f>
+        <v>-75384</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
-        <v>-90000</v>
+        <v>-165384</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>62</v>
@@ -10474,7 +12568,7 @@
         <f>'03'!AO22</f>
         <v>40500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="18">
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
@@ -10504,7 +12598,7 @@
         <f>'03'!AO34</f>
         <v>113900</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="18">
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
@@ -10531,12 +12625,12 @@
         <v>62</v>
       </c>
       <c r="H17" s="10">
-        <f>'03'!AO45</f>
-        <v>25734</v>
+        <f>'04'!AO28</f>
+        <v>83115</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" ref="I17" si="1">H17-F17</f>
-        <v>-84266</v>
+        <v>-26885</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>62</v>
@@ -10561,7 +12655,7 @@
         <v>62</v>
       </c>
       <c r="H18" s="10">
-        <f>'03'!AO46</f>
+        <f>'04'!AO29</f>
         <v>0</v>
       </c>
       <c r="I18" s="3">
@@ -10647,7 +12741,7 @@
         <v>62</v>
       </c>
       <c r="H22" s="10">
-        <f>'03'!AO31</f>
+        <f>'04'!AO17</f>
         <v>9348</v>
       </c>
       <c r="I22" s="18">
@@ -10823,7 +12917,7 @@
         <v>62</v>
       </c>
       <c r="H29" s="10">
-        <f>'03'!AO24</f>
+        <f>'04'!AO13</f>
         <v>19272</v>
       </c>
       <c r="I29" s="3">
@@ -10853,7 +12947,7 @@
         <v>62</v>
       </c>
       <c r="H30" s="10">
-        <f>'03'!AO40</f>
+        <f>'04'!AO23</f>
         <v>0</v>
       </c>
       <c r="I30" s="3">
@@ -10961,7 +13055,7 @@
         <f>'03'!AO15</f>
         <v>5000</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -11185,7 +13279,7 @@
         <v>62</v>
       </c>
       <c r="H42" s="10">
-        <f>'03'!AO17</f>
+        <f>'04'!AO11</f>
         <v>3606</v>
       </c>
       <c r="I42" s="3">
@@ -11215,7 +13309,7 @@
         <v>62</v>
       </c>
       <c r="H43" s="10">
-        <f>'02'!AM38</f>
+        <f>'04'!AO15</f>
         <v>0</v>
       </c>
       <c r="I43" s="3">
@@ -11245,7 +13339,7 @@
         <v>62</v>
       </c>
       <c r="H44" s="10">
-        <f>'03'!AO42</f>
+        <f>'04'!AO25</f>
         <v>0</v>
       </c>
       <c r="I44" s="3">
@@ -11318,7 +13412,7 @@
         <v>62</v>
       </c>
       <c r="H47" s="10">
-        <f>'03'!AO43</f>
+        <f>'04'!AO26</f>
         <v>0</v>
       </c>
       <c r="I47" s="18">
@@ -11640,7 +13734,7 @@
         <v>62</v>
       </c>
       <c r="H60" s="10">
-        <f>'03'!AO38</f>
+        <f>'04'!AO22</f>
         <v>0</v>
       </c>
       <c r="I60" s="18">
@@ -11805,7 +13899,7 @@
         <v>62</v>
       </c>
       <c r="H66" s="10">
-        <f>'03'!AO37</f>
+        <f>'04'!AO21</f>
         <v>4033</v>
       </c>
       <c r="I66" s="3">
@@ -11870,12 +13964,12 @@
         <v>62</v>
       </c>
       <c r="H69" s="14">
-        <f>'03'!AO13</f>
-        <v>69622</v>
-      </c>
-      <c r="I69" s="3">
+        <f>'04'!AO10</f>
+        <v>74900</v>
+      </c>
+      <c r="I69" s="17">
         <f t="shared" si="0"/>
-        <v>-5378</v>
+        <v>-100</v>
       </c>
       <c r="J69" s="21" t="s">
         <v>62</v>
@@ -11900,12 +13994,12 @@
         <v>62</v>
       </c>
       <c r="H70" s="14">
-        <f>'03'!AO20</f>
-        <v>0</v>
+        <f>'04'!AO12</f>
+        <v>16563</v>
       </c>
       <c r="I70" s="3">
         <f t="shared" si="0"/>
-        <v>-30000</v>
+        <v>-13437</v>
       </c>
       <c r="J70" s="21" t="s">
         <v>62</v>
@@ -11936,7 +14030,7 @@
         <v>62</v>
       </c>
       <c r="H72" s="10">
-        <f>'03'!AO9</f>
+        <f>'04'!AO9</f>
         <v>0</v>
       </c>
       <c r="I72" s="3">
@@ -11964,7 +14058,7 @@
         <v>62</v>
       </c>
       <c r="H73" s="10">
-        <f>'03'!AO30</f>
+        <f>'04'!AO16</f>
         <v>0</v>
       </c>
       <c r="I73" s="3">
@@ -12056,7 +14150,7 @@
         <v>62</v>
       </c>
       <c r="H77" s="10">
-        <f>'03'!AO44</f>
+        <f>'04'!AO27</f>
         <v>16256</v>
       </c>
       <c r="I77" s="3">
@@ -12115,7 +14209,7 @@
         <v>62</v>
       </c>
       <c r="H80" s="2">
-        <f>'03'!AO35</f>
+        <f>'04'!AO20</f>
         <v>2250</v>
       </c>
       <c r="I80" s="3">
